--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_11_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_11_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-57424.84990271993</v>
+        <v>-65940.19576136454</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33654759.71765641</v>
+        <v>33654759.71765644</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12802115.96047481</v>
+        <v>12802115.9604748</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2909073.790502956</v>
+        <v>2909073.790502955</v>
       </c>
     </row>
     <row r="11">
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="D11" t="n">
-        <v>418.1856318563247</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>418.1856318563247</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>418.1856318563247</v>
+        <v>177.0435563329656</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>368.3379045390506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1460,7 +1460,7 @@
         <v>93.17921052631581</v>
       </c>
       <c r="F12" t="n">
-        <v>82.54999999999964</v>
+        <v>82.55</v>
       </c>
       <c r="G12" t="n">
         <v>83.81976830925504</v>
@@ -1502,7 +1502,7 @@
         <v>49.60563018141188</v>
       </c>
       <c r="T12" t="n">
-        <v>126.0091317304331</v>
+        <v>126.0091317304332</v>
       </c>
       <c r="U12" t="n">
         <v>174.5263742585036</v>
@@ -1530,25 +1530,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>8.607542820327469</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>56.83336609465098</v>
       </c>
     </row>
     <row r="14">
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
         <v>418.1856318563248</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="G14" t="n">
-        <v>396.054118850051</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>48.85736879306067</v>
+        <v>368.3379045390508</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1770,19 +1770,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>50.51639969377998</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>84.93117419743035</v>
       </c>
       <c r="T16" t="n">
         <v>240.8720855447433</v>
@@ -1830,10 +1830,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>93.89586119486462</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>43.94281824961084</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -1937,10 +1937,10 @@
         <v>82.55</v>
       </c>
       <c r="G18" t="n">
-        <v>83.8197683092549</v>
+        <v>83.81976830925504</v>
       </c>
       <c r="H18" t="n">
-        <v>34.44698820166514</v>
+        <v>34.44698820166521</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T19" t="n">
-        <v>134.7842784775901</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>93.23221289198706</v>
       </c>
     </row>
     <row r="20">
@@ -2089,16 +2089,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>74.1458072303878</v>
       </c>
       <c r="X20" t="n">
-        <v>399.6990057452804</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2247,16 +2247,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.3388892342509</v>
+        <v>45.98325645079909</v>
       </c>
       <c r="H22" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2298,13 +2298,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>81.03695477480716</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2332,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T23" t="n">
-        <v>202.3701561169734</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U23" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>288.8533886719424</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T25" t="n">
-        <v>74.21270235918116</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>70.29093116410732</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U26" t="n">
-        <v>9.347123973539023</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>32.32968775282257</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>96.32704757856926</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>69.83578017384922</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>147.2540575406698</v>
+        <v>46.86358008704077</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2806,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T29" t="n">
-        <v>43.94281824961094</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>28.93332533255639</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -2955,22 +2955,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>240.8720855447433</v>
       </c>
       <c r="U31" t="n">
-        <v>136.6426786206818</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>0.4378751653246831</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>202.3701561169729</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>52.51403670113842</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U32" t="n">
-        <v>256.5237009191198</v>
+        <v>185.1045887963546</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3125,7 +3125,7 @@
         <v>83.81976830925504</v>
       </c>
       <c r="H33" t="n">
-        <v>34.44698820166455</v>
+        <v>34.44698820166514</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3189,25 +3189,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>69.83578017384922</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>163.4185442717043</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>192.9878774776385</v>
       </c>
     </row>
     <row r="35">
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>202.3701561169729</v>
+        <v>215.4871124912195</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U35" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,19 +3477,19 @@
         <v>147.2540575406698</v>
       </c>
       <c r="T37" t="n">
-        <v>15.21031296725193</v>
+        <v>106.9229857257419</v>
       </c>
       <c r="U37" t="n">
         <v>275.6161358490523</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>188.3877867239913</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,16 +3511,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>418.1856318563247</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>74.1458072303878</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>52.51403670113842</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U38" t="n">
         <v>256.5237009191198</v>
@@ -3565,7 +3565,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3666,13 +3666,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>28.05874549248765</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>74.21270235918072</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U40" t="n">
         <v>275.6161358490523</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3751,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>399.6990057452799</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>29.96044885662896</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3900,22 +3900,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>92.96953463700994</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>147.2540575406698</v>
+        <v>22.66604001217591</v>
       </c>
       <c r="T43" t="n">
         <v>240.8720855447433</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,22 +3979,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>368.3379045390508</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>141.908251445075</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>236.5789795615672</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4200,7 +4200,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>145.3418330456306</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1300.684037991914</v>
+        <v>1310.125577359126</v>
       </c>
       <c r="C11" t="n">
-        <v>1300.684037991914</v>
+        <v>887.715848211323</v>
       </c>
       <c r="D11" t="n">
-        <v>878.2743088441116</v>
+        <v>887.715848211323</v>
       </c>
       <c r="E11" t="n">
-        <v>455.8645796963088</v>
+        <v>887.715848211323</v>
       </c>
       <c r="F11" t="n">
-        <v>33.45485054850598</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="G11" t="n">
-        <v>33.45485054850598</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="H11" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I11" t="n">
-        <v>83.79828774524185</v>
+        <v>83.79828774524233</v>
       </c>
       <c r="J11" t="n">
-        <v>195.5292216073324</v>
+        <v>195.5292216073329</v>
       </c>
       <c r="K11" t="n">
-        <v>362.9849282099026</v>
+        <v>362.9849282099031</v>
       </c>
       <c r="L11" t="n">
-        <v>570.7285396968684</v>
+        <v>570.7285396968688</v>
       </c>
       <c r="M11" t="n">
-        <v>801.88333538472</v>
+        <v>801.8833353847206</v>
       </c>
       <c r="N11" t="n">
         <v>1036.7784573317</v>
@@ -5062,7 +5062,7 @@
         <v>1447.888527710259</v>
       </c>
       <c r="Q11" t="n">
-        <v>1590.048899840627</v>
+        <v>1590.048899840628</v>
       </c>
       <c r="R11" t="n">
         <v>1672.742527425299</v>
@@ -5077,16 +5077,16 @@
         <v>1672.742527425299</v>
       </c>
       <c r="V11" t="n">
-        <v>1672.742527425299</v>
+        <v>1310.125577359126</v>
       </c>
       <c r="W11" t="n">
-        <v>1672.742527425299</v>
+        <v>1310.125577359126</v>
       </c>
       <c r="X11" t="n">
-        <v>1672.742527425299</v>
+        <v>1310.125577359126</v>
       </c>
       <c r="Y11" t="n">
-        <v>1300.684037991914</v>
+        <v>1310.125577359126</v>
       </c>
     </row>
     <row r="12">
@@ -5096,16 +5096,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>531.9672238352455</v>
+        <v>531.9672238352458</v>
       </c>
       <c r="C12" t="n">
-        <v>425.5107626718877</v>
+        <v>425.5107626718881</v>
       </c>
       <c r="D12" t="n">
-        <v>330.420473818441</v>
+        <v>330.4204738184413</v>
       </c>
       <c r="E12" t="n">
-        <v>236.3000591453947</v>
+        <v>236.300059145395</v>
       </c>
       <c r="F12" t="n">
         <v>152.9162207615567</v>
@@ -5114,7 +5114,7 @@
         <v>68.24978812594551</v>
       </c>
       <c r="H12" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I12" t="n">
         <v>83.76937108752902</v>
@@ -5123,22 +5123,22 @@
         <v>474.8738748284774</v>
       </c>
       <c r="K12" t="n">
-        <v>588.6118936739097</v>
+        <v>605.2485493631991</v>
       </c>
       <c r="L12" t="n">
-        <v>741.5466961549138</v>
+        <v>758.1833518442032</v>
       </c>
       <c r="M12" t="n">
-        <v>920.0143971816303</v>
+        <v>936.6510528709197</v>
       </c>
       <c r="N12" t="n">
-        <v>1103.205607207306</v>
+        <v>1119.842262896595</v>
       </c>
       <c r="O12" t="n">
-        <v>1270.789775072916</v>
+        <v>1287.426430762205</v>
       </c>
       <c r="P12" t="n">
-        <v>1405.290844266289</v>
+        <v>1421.927499955579</v>
       </c>
       <c r="Q12" t="n">
         <v>1511.8379027716</v>
@@ -5159,13 +5159,13 @@
         <v>1119.947094163714</v>
       </c>
       <c r="W12" t="n">
-        <v>934.6243398969079</v>
+        <v>934.6243398969082</v>
       </c>
       <c r="X12" t="n">
-        <v>779.7569041357879</v>
+        <v>779.7569041357882</v>
       </c>
       <c r="Y12" t="n">
-        <v>653.2711249150086</v>
+        <v>653.271124915009</v>
       </c>
     </row>
     <row r="13">
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>688.1485926695855</v>
+        <v>619.1428009967993</v>
       </c>
       <c r="C13" t="n">
-        <v>688.1485926695855</v>
+        <v>446.5810894800243</v>
       </c>
       <c r="D13" t="n">
-        <v>679.454104972285</v>
+        <v>280.703096681547</v>
       </c>
       <c r="E13" t="n">
-        <v>509.6961012230222</v>
+        <v>280.703096681547</v>
       </c>
       <c r="F13" t="n">
-        <v>332.9890471847784</v>
+        <v>103.9960426433032</v>
       </c>
       <c r="G13" t="n">
-        <v>168.0002701804846</v>
+        <v>103.9960426433032</v>
       </c>
       <c r="H13" t="n">
-        <v>33.45485054850598</v>
+        <v>103.9960426433032</v>
       </c>
       <c r="I13" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="J13" t="n">
-        <v>147.9063075498995</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K13" t="n">
-        <v>216.5126308803684</v>
+        <v>505.1482476164479</v>
       </c>
       <c r="L13" t="n">
-        <v>304.3051044129574</v>
+        <v>769.1447895942089</v>
       </c>
       <c r="M13" t="n">
-        <v>718.3088799507188</v>
+        <v>861.7096435212255</v>
       </c>
       <c r="N13" t="n">
-        <v>1132.31265548848</v>
+        <v>952.0735121144794</v>
       </c>
       <c r="O13" t="n">
-        <v>1546.316431026242</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P13" t="n">
-        <v>1617.735720978398</v>
+        <v>1449.542946114066</v>
       </c>
       <c r="Q13" t="n">
         <v>1667.182735391305</v>
@@ -5232,19 +5232,19 @@
         <v>1672.742527425299</v>
       </c>
       <c r="U13" t="n">
-        <v>1394.342390204034</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="V13" t="n">
-        <v>1107.386882074464</v>
+        <v>1385.78701929573</v>
       </c>
       <c r="W13" t="n">
-        <v>1107.386882074464</v>
+        <v>1113.760614882021</v>
       </c>
       <c r="X13" t="n">
-        <v>1107.386882074464</v>
+        <v>868.3688602154339</v>
       </c>
       <c r="Y13" t="n">
-        <v>879.9672113885727</v>
+        <v>810.9614197157864</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>855.9192452014109</v>
+        <v>878.2743088441118</v>
       </c>
       <c r="C14" t="n">
-        <v>855.9192452014109</v>
+        <v>878.2743088441118</v>
       </c>
       <c r="D14" t="n">
-        <v>433.509516053608</v>
+        <v>878.2743088441118</v>
       </c>
       <c r="E14" t="n">
-        <v>433.509516053608</v>
+        <v>455.8645796963089</v>
       </c>
       <c r="F14" t="n">
-        <v>433.509516053608</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G14" t="n">
         <v>33.45485054850599</v>
@@ -5275,13 +5275,13 @@
         <v>33.45485054850599</v>
       </c>
       <c r="I14" t="n">
-        <v>83.7982877452424</v>
+        <v>83.79828774524233</v>
       </c>
       <c r="J14" t="n">
-        <v>195.5292216073329</v>
+        <v>195.529221607333</v>
       </c>
       <c r="K14" t="n">
-        <v>362.9849282099032</v>
+        <v>362.9849282099033</v>
       </c>
       <c r="L14" t="n">
         <v>570.7285396968689</v>
@@ -5296,10 +5296,10 @@
         <v>1258.583260144776</v>
       </c>
       <c r="P14" t="n">
-        <v>1447.888527710259</v>
+        <v>1447.88852771026</v>
       </c>
       <c r="Q14" t="n">
-        <v>1590.048899840627</v>
+        <v>1590.048899840628</v>
       </c>
       <c r="R14" t="n">
         <v>1672.742527425299</v>
@@ -5314,16 +5314,16 @@
         <v>1672.742527425299</v>
       </c>
       <c r="V14" t="n">
-        <v>1310.125577359126</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="W14" t="n">
-        <v>905.2701227701591</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="X14" t="n">
-        <v>855.9192452014109</v>
+        <v>1300.684037991915</v>
       </c>
       <c r="Y14" t="n">
-        <v>855.9192452014109</v>
+        <v>1300.684037991915</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>531.9672238352459</v>
+        <v>531.9672238352457</v>
       </c>
       <c r="C15" t="n">
-        <v>425.5107626718882</v>
+        <v>425.510762671888</v>
       </c>
       <c r="D15" t="n">
-        <v>330.4204738184415</v>
+        <v>330.4204738184412</v>
       </c>
       <c r="E15" t="n">
-        <v>236.3000591453952</v>
+        <v>236.3000591453949</v>
       </c>
       <c r="F15" t="n">
-        <v>152.9162207615568</v>
+        <v>152.9162207615566</v>
       </c>
       <c r="G15" t="n">
         <v>68.24978812594554</v>
@@ -5360,19 +5360,19 @@
         <v>474.8738748284774</v>
       </c>
       <c r="K15" t="n">
-        <v>588.6118936739097</v>
+        <v>605.2485493631991</v>
       </c>
       <c r="L15" t="n">
-        <v>741.5466961549138</v>
+        <v>758.1833518442032</v>
       </c>
       <c r="M15" t="n">
-        <v>920.0143971816303</v>
+        <v>936.6510528709197</v>
       </c>
       <c r="N15" t="n">
-        <v>1103.205607207306</v>
+        <v>1119.842262896595</v>
       </c>
       <c r="O15" t="n">
-        <v>1270.789775072916</v>
+        <v>1287.426430762205</v>
       </c>
       <c r="P15" t="n">
         <v>1421.927499955579</v>
@@ -5396,13 +5396,13 @@
         <v>1119.947094163714</v>
       </c>
       <c r="W15" t="n">
-        <v>934.6243398969084</v>
+        <v>934.6243398969082</v>
       </c>
       <c r="X15" t="n">
-        <v>779.7569041357883</v>
+        <v>779.7569041357881</v>
       </c>
       <c r="Y15" t="n">
-        <v>653.2711249150091</v>
+        <v>653.2711249150088</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>592.0553407468744</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="C16" t="n">
-        <v>592.0553407468744</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="D16" t="n">
-        <v>426.1773479483971</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="E16" t="n">
-        <v>426.1773479483971</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="F16" t="n">
-        <v>249.4702939101533</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G16" t="n">
-        <v>84.48151690585951</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H16" t="n">
         <v>33.45485054850599</v>
@@ -5445,13 +5445,13 @@
         <v>592.940721149037</v>
       </c>
       <c r="M16" t="n">
-        <v>685.5055750760537</v>
+        <v>1006.944496686799</v>
       </c>
       <c r="N16" t="n">
-        <v>775.8694436693074</v>
+        <v>1097.308365280052</v>
       </c>
       <c r="O16" t="n">
-        <v>1035.539170576305</v>
+        <v>1180.774023741878</v>
       </c>
       <c r="P16" t="n">
         <v>1449.542946114066</v>
@@ -5463,25 +5463,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S16" t="n">
-        <v>1672.742527425299</v>
+        <v>1586.95346257941</v>
       </c>
       <c r="T16" t="n">
-        <v>1429.437390511417</v>
+        <v>1343.648325665528</v>
       </c>
       <c r="U16" t="n">
-        <v>1151.037253290152</v>
+        <v>1065.248188444263</v>
       </c>
       <c r="V16" t="n">
-        <v>864.0817451605828</v>
+        <v>778.2926803146937</v>
       </c>
       <c r="W16" t="n">
-        <v>592.0553407468744</v>
+        <v>506.2662759009852</v>
       </c>
       <c r="X16" t="n">
-        <v>592.0553407468744</v>
+        <v>260.8745212343977</v>
       </c>
       <c r="Y16" t="n">
-        <v>592.0553407468744</v>
+        <v>33.45485054850599</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>77.84153564912299</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="C17" t="n">
-        <v>77.84153564912299</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="D17" t="n">
-        <v>77.84153564912299</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="E17" t="n">
-        <v>77.84153564912299</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="F17" t="n">
-        <v>77.84153564912299</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G17" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H17" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I17" t="n">
-        <v>83.7982877452425</v>
+        <v>83.79828774524178</v>
       </c>
       <c r="J17" t="n">
-        <v>195.529221607333</v>
+        <v>195.5292216073324</v>
       </c>
       <c r="K17" t="n">
-        <v>362.9849282099032</v>
+        <v>362.9849282099027</v>
       </c>
       <c r="L17" t="n">
-        <v>570.7285396968689</v>
+        <v>570.7285396968684</v>
       </c>
       <c r="M17" t="n">
-        <v>801.8833353847205</v>
+        <v>801.88333538472</v>
       </c>
       <c r="N17" t="n">
         <v>1036.7784573317</v>
@@ -5542,25 +5542,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S17" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T17" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="U17" t="n">
-        <v>1672.742527425299</v>
+        <v>1360.583196495746</v>
       </c>
       <c r="V17" t="n">
-        <v>1310.125577359126</v>
+        <v>1360.583196495746</v>
       </c>
       <c r="W17" t="n">
-        <v>905.2701227701589</v>
+        <v>955.7277419067789</v>
       </c>
       <c r="X17" t="n">
-        <v>486.1276593494696</v>
+        <v>536.5852784860896</v>
       </c>
       <c r="Y17" t="n">
-        <v>77.84153564912299</v>
+        <v>128.299154785743</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>531.9672238352457</v>
+        <v>531.9672238352459</v>
       </c>
       <c r="C18" t="n">
-        <v>425.510762671888</v>
+        <v>425.5107626718882</v>
       </c>
       <c r="D18" t="n">
-        <v>330.4204738184412</v>
+        <v>330.4204738184415</v>
       </c>
       <c r="E18" t="n">
-        <v>236.3000591453949</v>
+        <v>236.3000591453952</v>
       </c>
       <c r="F18" t="n">
-        <v>152.9162207615565</v>
+        <v>152.9162207615568</v>
       </c>
       <c r="G18" t="n">
-        <v>68.24978812594551</v>
+        <v>68.2497881259456</v>
       </c>
       <c r="H18" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I18" t="n">
-        <v>83.76937108752901</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J18" t="n">
         <v>474.8738748284774</v>
       </c>
       <c r="K18" t="n">
-        <v>588.6118936739097</v>
+        <v>605.2485493631991</v>
       </c>
       <c r="L18" t="n">
-        <v>741.5466961549137</v>
+        <v>758.1833518442032</v>
       </c>
       <c r="M18" t="n">
-        <v>920.0143971816302</v>
+        <v>936.6510528709197</v>
       </c>
       <c r="N18" t="n">
-        <v>1103.205607207306</v>
+        <v>1119.842262896595</v>
       </c>
       <c r="O18" t="n">
-        <v>1270.789775072916</v>
+        <v>1287.426430762205</v>
       </c>
       <c r="P18" t="n">
-        <v>1405.290844266289</v>
+        <v>1421.927499955579</v>
       </c>
       <c r="Q18" t="n">
         <v>1511.8379027716</v>
@@ -5624,7 +5624,7 @@
         <v>1622.635830272358</v>
       </c>
       <c r="T18" t="n">
-        <v>1495.353879029496</v>
+        <v>1495.353879029497</v>
       </c>
       <c r="U18" t="n">
         <v>1319.064612101715</v>
@@ -5633,13 +5633,13 @@
         <v>1119.947094163714</v>
       </c>
       <c r="W18" t="n">
-        <v>934.6243398969082</v>
+        <v>934.6243398969084</v>
       </c>
       <c r="X18" t="n">
-        <v>779.7569041357881</v>
+        <v>779.7569041357883</v>
       </c>
       <c r="Y18" t="n">
-        <v>653.2711249150088</v>
+        <v>653.2711249150091</v>
       </c>
     </row>
     <row r="19">
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>845.3320977707623</v>
+        <v>375.7745658145438</v>
       </c>
       <c r="C19" t="n">
-        <v>845.3320977707623</v>
+        <v>203.2128542977687</v>
       </c>
       <c r="D19" t="n">
-        <v>679.454104972285</v>
+        <v>203.2128542977687</v>
       </c>
       <c r="E19" t="n">
-        <v>509.6961012230222</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="F19" t="n">
-        <v>332.9890471847784</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G19" t="n">
-        <v>168.0002701804846</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H19" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I19" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="J19" t="n">
-        <v>161.7834697148434</v>
+        <v>75.20378455015359</v>
       </c>
       <c r="K19" t="n">
-        <v>505.1482476164479</v>
+        <v>418.568562451758</v>
       </c>
       <c r="L19" t="n">
-        <v>592.9407211490369</v>
+        <v>769.1447895942089</v>
       </c>
       <c r="M19" t="n">
-        <v>1006.944496686798</v>
+        <v>861.7096435212255</v>
       </c>
       <c r="N19" t="n">
-        <v>1097.308365280052</v>
+        <v>952.0735121144794</v>
       </c>
       <c r="O19" t="n">
-        <v>1180.774023741877</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P19" t="n">
         <v>1449.542946114066</v>
@@ -5700,25 +5700,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S19" t="n">
-        <v>1672.742527425299</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="T19" t="n">
-        <v>1536.59679158935</v>
+        <v>1280.695918248114</v>
       </c>
       <c r="U19" t="n">
-        <v>1536.59679158935</v>
+        <v>1002.295781026849</v>
       </c>
       <c r="V19" t="n">
-        <v>1536.59679158935</v>
+        <v>715.3402728972799</v>
       </c>
       <c r="W19" t="n">
-        <v>1264.570387175641</v>
+        <v>715.3402728972799</v>
       </c>
       <c r="X19" t="n">
-        <v>1264.570387175641</v>
+        <v>469.9485182306923</v>
       </c>
       <c r="Y19" t="n">
-        <v>1037.150716489749</v>
+        <v>375.7745658145438</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>455.8645796963089</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="C20" t="n">
-        <v>455.8645796963089</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="D20" t="n">
-        <v>455.8645796963089</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="E20" t="n">
-        <v>33.45485054850599</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="F20" t="n">
-        <v>33.45485054850599</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="G20" t="n">
-        <v>33.45485054850599</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="H20" t="n">
         <v>33.45485054850599</v>
       </c>
       <c r="I20" t="n">
-        <v>83.79828774524233</v>
+        <v>83.79828774524201</v>
       </c>
       <c r="J20" t="n">
-        <v>195.529221607333</v>
+        <v>195.5292216073326</v>
       </c>
       <c r="K20" t="n">
-        <v>362.9849282099032</v>
+        <v>362.9849282099029</v>
       </c>
       <c r="L20" t="n">
-        <v>570.7285396968689</v>
+        <v>570.7285396968687</v>
       </c>
       <c r="M20" t="n">
-        <v>801.8833353847206</v>
+        <v>801.8833353847205</v>
       </c>
       <c r="N20" t="n">
         <v>1036.7784573317</v>
@@ -5773,31 +5773,31 @@
         <v>1447.888527710259</v>
       </c>
       <c r="Q20" t="n">
-        <v>1590.048899840627</v>
+        <v>1590.048899840628</v>
       </c>
       <c r="R20" t="n">
         <v>1672.742527425299</v>
       </c>
       <c r="S20" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T20" t="n">
-        <v>1672.742527425299</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="U20" t="n">
-        <v>1672.742527425299</v>
+        <v>1146.395677971862</v>
       </c>
       <c r="V20" t="n">
-        <v>1672.742527425299</v>
+        <v>783.7787279056888</v>
       </c>
       <c r="W20" t="n">
-        <v>1267.887072836333</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="X20" t="n">
-        <v>864.1507033966554</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="Y20" t="n">
-        <v>455.8645796963089</v>
+        <v>708.8839731275193</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>531.9672238352458</v>
+        <v>531.9672238352457</v>
       </c>
       <c r="C21" t="n">
-        <v>425.5107626718881</v>
+        <v>425.510762671888</v>
       </c>
       <c r="D21" t="n">
-        <v>330.4204738184413</v>
+        <v>330.4204738184412</v>
       </c>
       <c r="E21" t="n">
-        <v>236.300059145395</v>
+        <v>236.3000591453949</v>
       </c>
       <c r="F21" t="n">
-        <v>152.9162207615567</v>
+        <v>152.9162207615566</v>
       </c>
       <c r="G21" t="n">
-        <v>68.24978812594551</v>
+        <v>68.2497881259456</v>
       </c>
       <c r="H21" t="n">
         <v>33.45485054850599</v>
       </c>
       <c r="I21" t="n">
-        <v>57.70569792707142</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J21" t="n">
-        <v>448.8102016680198</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K21" t="n">
-        <v>562.5482205134522</v>
+        <v>588.6118936739097</v>
       </c>
       <c r="L21" t="n">
-        <v>715.4830229944562</v>
+        <v>741.5466961549138</v>
       </c>
       <c r="M21" t="n">
-        <v>893.9507240211726</v>
+        <v>920.0143971816303</v>
       </c>
       <c r="N21" t="n">
-        <v>1077.141934046848</v>
+        <v>1103.205607207306</v>
       </c>
       <c r="O21" t="n">
-        <v>1244.726101912458</v>
+        <v>1270.789775072916</v>
       </c>
       <c r="P21" t="n">
-        <v>1379.227171105832</v>
+        <v>1405.290844266289</v>
       </c>
       <c r="Q21" t="n">
         <v>1511.8379027716</v>
@@ -5873,10 +5873,10 @@
         <v>934.6243398969082</v>
       </c>
       <c r="X21" t="n">
-        <v>779.7569041357882</v>
+        <v>779.7569041357881</v>
       </c>
       <c r="Y21" t="n">
-        <v>653.271124915009</v>
+        <v>653.2711249150088</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>848.1358055382746</v>
+        <v>764.8073464399508</v>
       </c>
       <c r="C22" t="n">
-        <v>675.5740940214995</v>
+        <v>592.2456349231758</v>
       </c>
       <c r="D22" t="n">
-        <v>509.6961012230222</v>
+        <v>426.3676421246985</v>
       </c>
       <c r="E22" t="n">
-        <v>509.6961012230222</v>
+        <v>256.6096383754357</v>
       </c>
       <c r="F22" t="n">
-        <v>332.9890471847784</v>
+        <v>79.90258433719194</v>
       </c>
       <c r="G22" t="n">
-        <v>168.0002701804846</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H22" t="n">
         <v>33.45485054850599</v>
@@ -5910,25 +5910,25 @@
         <v>33.45485054850599</v>
       </c>
       <c r="J22" t="n">
-        <v>161.7834697148434</v>
+        <v>75.20378455015359</v>
       </c>
       <c r="K22" t="n">
-        <v>505.1482476164479</v>
+        <v>143.8101078806224</v>
       </c>
       <c r="L22" t="n">
-        <v>592.940721149037</v>
+        <v>304.3051044129577</v>
       </c>
       <c r="M22" t="n">
-        <v>685.5055750760537</v>
+        <v>718.3088799507193</v>
       </c>
       <c r="N22" t="n">
-        <v>775.8694436693074</v>
+        <v>1132.312655488481</v>
       </c>
       <c r="O22" t="n">
-        <v>1035.539170576305</v>
+        <v>1546.316431026242</v>
       </c>
       <c r="P22" t="n">
-        <v>1449.542946114066</v>
+        <v>1617.735720978399</v>
       </c>
       <c r="Q22" t="n">
         <v>1667.182735391305</v>
@@ -5946,16 +5946,16 @@
         <v>1429.437390511417</v>
       </c>
       <c r="V22" t="n">
-        <v>1347.581880637875</v>
+        <v>1429.437390511417</v>
       </c>
       <c r="W22" t="n">
-        <v>1075.555476224166</v>
+        <v>1429.437390511417</v>
       </c>
       <c r="X22" t="n">
-        <v>1075.555476224166</v>
+        <v>1184.04563584483</v>
       </c>
       <c r="Y22" t="n">
-        <v>848.1358055382746</v>
+        <v>956.625965158938</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>33.45485054850598</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="C23" t="n">
-        <v>33.45485054850598</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="D23" t="n">
-        <v>33.45485054850598</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="E23" t="n">
-        <v>33.45485054850598</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="F23" t="n">
-        <v>33.45485054850598</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="G23" t="n">
-        <v>33.45485054850598</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="H23" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I23" t="n">
-        <v>83.79828774524256</v>
+        <v>83.79828774524233</v>
       </c>
       <c r="J23" t="n">
-        <v>195.5292216073331</v>
+        <v>195.5292216073329</v>
       </c>
       <c r="K23" t="n">
-        <v>362.9849282099033</v>
+        <v>362.9849282099031</v>
       </c>
       <c r="L23" t="n">
-        <v>570.7285396968689</v>
+        <v>570.7285396968688</v>
       </c>
       <c r="M23" t="n">
         <v>801.8833353847206</v>
@@ -6010,31 +6010,31 @@
         <v>1447.888527710259</v>
       </c>
       <c r="Q23" t="n">
-        <v>1590.048899840627</v>
+        <v>1590.048899840628</v>
       </c>
       <c r="R23" t="n">
         <v>1672.742527425299</v>
       </c>
       <c r="S23" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T23" t="n">
-        <v>1468.328228317245</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="U23" t="n">
-        <v>1209.213378903993</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="V23" t="n">
-        <v>846.5964288378193</v>
+        <v>1113.739427716486</v>
       </c>
       <c r="W23" t="n">
-        <v>441.7409742488526</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="X23" t="n">
-        <v>441.7409742488526</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="Y23" t="n">
-        <v>33.45485054850598</v>
+        <v>708.8839731275193</v>
       </c>
     </row>
     <row r="24">
@@ -6062,31 +6062,31 @@
         <v>68.24978812594551</v>
       </c>
       <c r="H24" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I24" t="n">
-        <v>83.76937108752901</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J24" t="n">
-        <v>150.3155498622651</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K24" t="n">
-        <v>264.0535687076973</v>
+        <v>605.2485493631987</v>
       </c>
       <c r="L24" t="n">
-        <v>416.9883711887013</v>
+        <v>758.1833518442028</v>
       </c>
       <c r="M24" t="n">
-        <v>595.4560722154179</v>
+        <v>936.6510528709192</v>
       </c>
       <c r="N24" t="n">
-        <v>778.6472822410932</v>
+        <v>1119.842262896595</v>
       </c>
       <c r="O24" t="n">
-        <v>946.2314501067033</v>
+        <v>1287.426430762205</v>
       </c>
       <c r="P24" t="n">
-        <v>1097.834127233838</v>
+        <v>1421.927499955578</v>
       </c>
       <c r="Q24" t="n">
         <v>1511.8379027716</v>
@@ -6123,43 +6123,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>382.7236161035248</v>
+        <v>745.8499545456135</v>
       </c>
       <c r="C25" t="n">
-        <v>210.1619045867498</v>
+        <v>573.2882430288385</v>
       </c>
       <c r="D25" t="n">
-        <v>210.1619045867498</v>
+        <v>573.2882430288385</v>
       </c>
       <c r="E25" t="n">
-        <v>210.1619045867498</v>
+        <v>403.5302392795757</v>
       </c>
       <c r="F25" t="n">
-        <v>33.45485054850598</v>
+        <v>403.5302392795757</v>
       </c>
       <c r="G25" t="n">
-        <v>33.45485054850598</v>
+        <v>238.5414622752818</v>
       </c>
       <c r="H25" t="n">
-        <v>33.45485054850598</v>
+        <v>103.9960426433032</v>
       </c>
       <c r="I25" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="J25" t="n">
-        <v>75.20378455015356</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K25" t="n">
-        <v>418.5685624517579</v>
+        <v>505.1482476164479</v>
       </c>
       <c r="L25" t="n">
-        <v>769.1447895942088</v>
+        <v>769.1447895942089</v>
       </c>
       <c r="M25" t="n">
-        <v>861.7096435212254</v>
+        <v>861.7096435212255</v>
       </c>
       <c r="N25" t="n">
-        <v>952.0735121144792</v>
+        <v>952.0735121144794</v>
       </c>
       <c r="O25" t="n">
         <v>1035.539170576305</v>
@@ -6174,25 +6174,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S25" t="n">
-        <v>1672.742527425299</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="T25" t="n">
-        <v>1597.780201809965</v>
+        <v>1280.695918248114</v>
       </c>
       <c r="U25" t="n">
-        <v>1319.3800645887</v>
+        <v>1280.695918248114</v>
       </c>
       <c r="V25" t="n">
-        <v>1319.3800645887</v>
+        <v>1209.694977678309</v>
       </c>
       <c r="W25" t="n">
-        <v>1047.353660174991</v>
+        <v>937.6685732646006</v>
       </c>
       <c r="X25" t="n">
-        <v>801.9619055084038</v>
+        <v>937.6685732646006</v>
       </c>
       <c r="Y25" t="n">
-        <v>574.542234822512</v>
+        <v>937.6685732646006</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1300.684037991914</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="C26" t="n">
-        <v>878.2743088441117</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="D26" t="n">
-        <v>455.8645796963089</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="E26" t="n">
-        <v>33.45485054850598</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="F26" t="n">
-        <v>33.45485054850598</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="G26" t="n">
-        <v>33.45485054850598</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="H26" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I26" t="n">
-        <v>83.79828774524262</v>
+        <v>83.79828774524186</v>
       </c>
       <c r="J26" t="n">
-        <v>195.5292216073331</v>
+        <v>195.5292216073324</v>
       </c>
       <c r="K26" t="n">
-        <v>362.9849282099033</v>
+        <v>362.9849282099025</v>
       </c>
       <c r="L26" t="n">
-        <v>570.728539696869</v>
+        <v>570.7285396968684</v>
       </c>
       <c r="M26" t="n">
-        <v>801.8833353847206</v>
+        <v>801.8833353847201</v>
       </c>
       <c r="N26" t="n">
         <v>1036.7784573317</v>
@@ -6253,25 +6253,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S26" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T26" t="n">
-        <v>1672.742527425299</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="U26" t="n">
-        <v>1663.300988058088</v>
+        <v>1146.395677971862</v>
       </c>
       <c r="V26" t="n">
-        <v>1300.684037991914</v>
+        <v>1146.395677971862</v>
       </c>
       <c r="W26" t="n">
-        <v>1300.684037991914</v>
+        <v>741.5402233828956</v>
       </c>
       <c r="X26" t="n">
-        <v>1300.684037991914</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="Y26" t="n">
-        <v>1300.684037991914</v>
+        <v>708.8839731275193</v>
       </c>
     </row>
     <row r="27">
@@ -6299,22 +6299,22 @@
         <v>68.24978812594551</v>
       </c>
       <c r="H27" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I27" t="n">
-        <v>83.76937108752901</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J27" t="n">
         <v>474.8738748284774</v>
       </c>
       <c r="K27" t="n">
-        <v>605.2485493631992</v>
+        <v>605.2485493631987</v>
       </c>
       <c r="L27" t="n">
-        <v>758.1833518442032</v>
+        <v>758.1833518442028</v>
       </c>
       <c r="M27" t="n">
-        <v>936.6510528709197</v>
+        <v>936.6510528709192</v>
       </c>
       <c r="N27" t="n">
         <v>1119.842262896595</v>
@@ -6360,46 +6360,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>953.889581750356</v>
+        <v>717.4703968570815</v>
       </c>
       <c r="C28" t="n">
-        <v>781.3278702335809</v>
+        <v>544.9086853403064</v>
       </c>
       <c r="D28" t="n">
-        <v>615.4498774351036</v>
+        <v>544.9086853403064</v>
       </c>
       <c r="E28" t="n">
-        <v>445.6918736858408</v>
+        <v>375.1506815910436</v>
       </c>
       <c r="F28" t="n">
-        <v>268.984819647597</v>
+        <v>198.4436275527998</v>
       </c>
       <c r="G28" t="n">
-        <v>103.9960426433032</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H28" t="n">
-        <v>103.9960426433032</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I28" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="J28" t="n">
-        <v>75.20378455015356</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K28" t="n">
-        <v>418.5685624517579</v>
+        <v>505.1482476164479</v>
       </c>
       <c r="L28" t="n">
-        <v>832.5723379895194</v>
+        <v>592.940721149037</v>
       </c>
       <c r="M28" t="n">
-        <v>925.1371919165362</v>
+        <v>685.5055750760537</v>
       </c>
       <c r="N28" t="n">
-        <v>1015.50106050979</v>
+        <v>775.8694436693075</v>
       </c>
       <c r="O28" t="n">
-        <v>1098.966718971615</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P28" t="n">
         <v>1449.542946114066</v>
@@ -6411,25 +6411,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S28" t="n">
-        <v>1524.001055161996</v>
+        <v>1625.40557784243</v>
       </c>
       <c r="T28" t="n">
-        <v>1524.001055161996</v>
+        <v>1382.100440928548</v>
       </c>
       <c r="U28" t="n">
-        <v>1524.001055161996</v>
+        <v>1382.100440928548</v>
       </c>
       <c r="V28" t="n">
-        <v>1524.001055161996</v>
+        <v>1382.100440928548</v>
       </c>
       <c r="W28" t="n">
-        <v>1524.001055161996</v>
+        <v>1382.100440928548</v>
       </c>
       <c r="X28" t="n">
-        <v>1278.609300495409</v>
+        <v>1136.70868626196</v>
       </c>
       <c r="Y28" t="n">
-        <v>1051.189629809517</v>
+        <v>909.2890155760686</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>33.45485054850599</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="C29" t="n">
-        <v>33.45485054850599</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="D29" t="n">
-        <v>33.45485054850599</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="E29" t="n">
-        <v>33.45485054850599</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="F29" t="n">
-        <v>33.45485054850599</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="G29" t="n">
-        <v>33.45485054850599</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="H29" t="n">
         <v>33.45485054850599</v>
       </c>
       <c r="I29" t="n">
-        <v>83.7982877452425</v>
+        <v>83.79828774524179</v>
       </c>
       <c r="J29" t="n">
-        <v>195.529221607333</v>
+        <v>195.5292216073323</v>
       </c>
       <c r="K29" t="n">
-        <v>362.9849282099033</v>
+        <v>362.9849282099026</v>
       </c>
       <c r="L29" t="n">
-        <v>570.728539696869</v>
+        <v>570.7285396968683</v>
       </c>
       <c r="M29" t="n">
-        <v>801.8833353847206</v>
+        <v>801.88333538472</v>
       </c>
       <c r="N29" t="n">
         <v>1036.7784573317</v>
@@ -6490,25 +6490,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S29" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T29" t="n">
-        <v>1628.355842324682</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="U29" t="n">
-        <v>1628.355842324682</v>
+        <v>1146.395677971862</v>
       </c>
       <c r="V29" t="n">
-        <v>1265.738892258509</v>
+        <v>1117.170096827866</v>
       </c>
       <c r="W29" t="n">
-        <v>860.8834376695419</v>
+        <v>1117.170096827866</v>
       </c>
       <c r="X29" t="n">
-        <v>441.7409742488526</v>
+        <v>1117.170096827866</v>
       </c>
       <c r="Y29" t="n">
-        <v>33.45485054850599</v>
+        <v>708.8839731275193</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>83.76937108752902</v>
       </c>
       <c r="J30" t="n">
-        <v>474.8738748284774</v>
+        <v>150.3155498622651</v>
       </c>
       <c r="K30" t="n">
-        <v>588.6118936739097</v>
+        <v>264.0535687076974</v>
       </c>
       <c r="L30" t="n">
-        <v>741.5466961549138</v>
+        <v>416.9883711887014</v>
       </c>
       <c r="M30" t="n">
-        <v>920.0143971816303</v>
+        <v>595.4560722154181</v>
       </c>
       <c r="N30" t="n">
-        <v>1103.205607207306</v>
+        <v>778.6472822410934</v>
       </c>
       <c r="O30" t="n">
-        <v>1270.789775072916</v>
+        <v>946.2314501067035</v>
       </c>
       <c r="P30" t="n">
-        <v>1405.290844266289</v>
+        <v>1360.235225644465</v>
       </c>
       <c r="Q30" t="n">
         <v>1511.8379027716</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>206.0165620652811</v>
+        <v>1088.435001382335</v>
       </c>
       <c r="C31" t="n">
-        <v>33.45485054850599</v>
+        <v>915.8732898655595</v>
       </c>
       <c r="D31" t="n">
-        <v>33.45485054850599</v>
+        <v>749.9952970670822</v>
       </c>
       <c r="E31" t="n">
-        <v>33.45485054850599</v>
+        <v>580.2372933178194</v>
       </c>
       <c r="F31" t="n">
-        <v>33.45485054850599</v>
+        <v>403.5302392795757</v>
       </c>
       <c r="G31" t="n">
-        <v>33.45485054850599</v>
+        <v>238.5414622752818</v>
       </c>
       <c r="H31" t="n">
-        <v>33.45485054850599</v>
+        <v>103.9960426433032</v>
       </c>
       <c r="I31" t="n">
         <v>33.45485054850599</v>
@@ -6627,10 +6627,10 @@
         <v>505.1482476164479</v>
       </c>
       <c r="L31" t="n">
-        <v>592.940721149037</v>
+        <v>769.1447895942089</v>
       </c>
       <c r="M31" t="n">
-        <v>861.7096435212256</v>
+        <v>861.7096435212255</v>
       </c>
       <c r="N31" t="n">
         <v>952.0735121144794</v>
@@ -6654,19 +6654,19 @@
         <v>1280.695918248114</v>
       </c>
       <c r="U31" t="n">
-        <v>1142.673010550456</v>
+        <v>1280.695918248114</v>
       </c>
       <c r="V31" t="n">
-        <v>1142.673010550456</v>
+        <v>1280.253620101322</v>
       </c>
       <c r="W31" t="n">
-        <v>870.6466061367474</v>
+        <v>1280.253620101322</v>
       </c>
       <c r="X31" t="n">
-        <v>625.2548514701599</v>
+        <v>1280.253620101322</v>
       </c>
       <c r="Y31" t="n">
-        <v>397.8351807842682</v>
+        <v>1280.253620101322</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>237.8691496565594</v>
+        <v>855.9192452014108</v>
       </c>
       <c r="C32" t="n">
-        <v>237.8691496565594</v>
+        <v>433.509516053608</v>
       </c>
       <c r="D32" t="n">
-        <v>237.8691496565594</v>
+        <v>433.509516053608</v>
       </c>
       <c r="E32" t="n">
-        <v>237.8691496565594</v>
+        <v>433.509516053608</v>
       </c>
       <c r="F32" t="n">
-        <v>237.8691496565594</v>
+        <v>433.509516053608</v>
       </c>
       <c r="G32" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="H32" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I32" t="n">
-        <v>83.79828774524184</v>
+        <v>83.79828774524185</v>
       </c>
       <c r="J32" t="n">
-        <v>195.5292216073323</v>
+        <v>195.5292216073324</v>
       </c>
       <c r="K32" t="n">
         <v>362.9849282099026</v>
@@ -6727,25 +6727,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S32" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T32" t="n">
-        <v>1672.742527425299</v>
+        <v>1405.510527385114</v>
       </c>
       <c r="U32" t="n">
-        <v>1413.627678012046</v>
+        <v>1218.536195267584</v>
       </c>
       <c r="V32" t="n">
-        <v>1051.010727945873</v>
+        <v>855.9192452014108</v>
       </c>
       <c r="W32" t="n">
-        <v>646.155273356906</v>
+        <v>855.9192452014108</v>
       </c>
       <c r="X32" t="n">
-        <v>646.155273356906</v>
+        <v>855.9192452014108</v>
       </c>
       <c r="Y32" t="n">
-        <v>237.8691496565594</v>
+        <v>855.9192452014108</v>
       </c>
     </row>
     <row r="33">
@@ -6755,40 +6755,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>531.9672238352452</v>
+        <v>531.9672238352458</v>
       </c>
       <c r="C33" t="n">
-        <v>425.5107626718875</v>
+        <v>425.5107626718881</v>
       </c>
       <c r="D33" t="n">
-        <v>330.4204738184408</v>
+        <v>330.4204738184413</v>
       </c>
       <c r="E33" t="n">
-        <v>236.3000591453945</v>
+        <v>236.300059145395</v>
       </c>
       <c r="F33" t="n">
-        <v>152.9162207615561</v>
+        <v>152.9162207615567</v>
       </c>
       <c r="G33" t="n">
-        <v>68.24978812594492</v>
+        <v>68.24978812594551</v>
       </c>
       <c r="H33" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I33" t="n">
-        <v>83.769371087529</v>
+        <v>83.76937108752901</v>
       </c>
       <c r="J33" t="n">
         <v>474.8738748284774</v>
       </c>
       <c r="K33" t="n">
-        <v>605.2485493631987</v>
+        <v>605.2485493631991</v>
       </c>
       <c r="L33" t="n">
-        <v>758.1833518442028</v>
+        <v>758.1833518442032</v>
       </c>
       <c r="M33" t="n">
-        <v>936.6510528709192</v>
+        <v>936.6510528709197</v>
       </c>
       <c r="N33" t="n">
         <v>1119.842262896595</v>
@@ -6806,25 +6806,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S33" t="n">
-        <v>1622.635830272357</v>
+        <v>1622.635830272358</v>
       </c>
       <c r="T33" t="n">
         <v>1495.353879029496</v>
       </c>
       <c r="U33" t="n">
-        <v>1319.064612101714</v>
+        <v>1319.064612101715</v>
       </c>
       <c r="V33" t="n">
         <v>1119.947094163714</v>
       </c>
       <c r="W33" t="n">
-        <v>934.6243398969077</v>
+        <v>934.6243398969082</v>
       </c>
       <c r="X33" t="n">
-        <v>779.7569041357876</v>
+        <v>779.7569041357882</v>
       </c>
       <c r="Y33" t="n">
-        <v>653.2711249150084</v>
+        <v>653.271124915009</v>
       </c>
     </row>
     <row r="34">
@@ -6834,46 +6834,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1088.435001382335</v>
+        <v>203.2128542977687</v>
       </c>
       <c r="C34" t="n">
-        <v>915.8732898655595</v>
+        <v>203.2128542977687</v>
       </c>
       <c r="D34" t="n">
-        <v>749.9952970670822</v>
+        <v>203.2128542977687</v>
       </c>
       <c r="E34" t="n">
-        <v>580.2372933178194</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="F34" t="n">
-        <v>403.5302392795757</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="G34" t="n">
-        <v>238.5414622752818</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="H34" t="n">
-        <v>103.9960426433032</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I34" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="J34" t="n">
-        <v>75.20378455015356</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K34" t="n">
-        <v>418.568562451758</v>
+        <v>505.1482476164479</v>
       </c>
       <c r="L34" t="n">
-        <v>832.5723379895194</v>
+        <v>592.940721149037</v>
       </c>
       <c r="M34" t="n">
-        <v>925.1371919165362</v>
+        <v>1006.944496686799</v>
       </c>
       <c r="N34" t="n">
-        <v>1015.50106050979</v>
+        <v>1097.308365280052</v>
       </c>
       <c r="O34" t="n">
-        <v>1098.966718971615</v>
+        <v>1180.774023741878</v>
       </c>
       <c r="P34" t="n">
         <v>1449.542946114066</v>
@@ -6888,22 +6888,22 @@
         <v>1672.742527425299</v>
       </c>
       <c r="T34" t="n">
-        <v>1507.673290787214</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="U34" t="n">
-        <v>1507.673290787214</v>
+        <v>1394.342390204034</v>
       </c>
       <c r="V34" t="n">
-        <v>1507.673290787214</v>
+        <v>1107.386882074464</v>
       </c>
       <c r="W34" t="n">
-        <v>1507.673290787214</v>
+        <v>835.360477660756</v>
       </c>
       <c r="X34" t="n">
-        <v>1507.673290787214</v>
+        <v>589.9687229941685</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.253620101322</v>
+        <v>395.0314730167559</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>237.8691496565594</v>
+        <v>673.5283296874397</v>
       </c>
       <c r="C35" t="n">
-        <v>237.8691496565594</v>
+        <v>251.1186005396368</v>
       </c>
       <c r="D35" t="n">
-        <v>237.8691496565594</v>
+        <v>251.1186005396368</v>
       </c>
       <c r="E35" t="n">
-        <v>237.8691496565594</v>
+        <v>251.1186005396368</v>
       </c>
       <c r="F35" t="n">
-        <v>237.8691496565594</v>
+        <v>251.1186005396368</v>
       </c>
       <c r="G35" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H35" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I35" t="n">
-        <v>83.79828774524185</v>
+        <v>83.79828774524228</v>
       </c>
       <c r="J35" t="n">
-        <v>195.5292216073324</v>
+        <v>195.5292216073328</v>
       </c>
       <c r="K35" t="n">
-        <v>362.9849282099026</v>
+        <v>362.9849282099031</v>
       </c>
       <c r="L35" t="n">
-        <v>570.7285396968683</v>
+        <v>570.7285396968689</v>
       </c>
       <c r="M35" t="n">
-        <v>801.8833353847199</v>
+        <v>801.8833353847205</v>
       </c>
       <c r="N35" t="n">
         <v>1036.7784573317</v>
@@ -6967,22 +6967,22 @@
         <v>1672.742527425299</v>
       </c>
       <c r="T35" t="n">
-        <v>1672.742527425299</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="U35" t="n">
-        <v>1413.627678012046</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="V35" t="n">
-        <v>1051.010727945873</v>
+        <v>1095.938058835243</v>
       </c>
       <c r="W35" t="n">
-        <v>646.155273356906</v>
+        <v>1095.938058835243</v>
       </c>
       <c r="X35" t="n">
-        <v>646.155273356906</v>
+        <v>1095.938058835243</v>
       </c>
       <c r="Y35" t="n">
-        <v>237.8691496565594</v>
+        <v>1095.938058835243</v>
       </c>
     </row>
     <row r="36">
@@ -7010,31 +7010,31 @@
         <v>68.24978812594551</v>
       </c>
       <c r="H36" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I36" t="n">
-        <v>83.769371087529</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J36" t="n">
-        <v>474.8738748284773</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K36" t="n">
-        <v>605.2485493631991</v>
+        <v>588.6118936739097</v>
       </c>
       <c r="L36" t="n">
-        <v>758.1833518442032</v>
+        <v>741.5466961549138</v>
       </c>
       <c r="M36" t="n">
-        <v>936.6510528709197</v>
+        <v>920.0143971816303</v>
       </c>
       <c r="N36" t="n">
-        <v>1119.842262896595</v>
+        <v>1103.205607207306</v>
       </c>
       <c r="O36" t="n">
-        <v>1287.426430762205</v>
+        <v>1270.789775072916</v>
       </c>
       <c r="P36" t="n">
-        <v>1421.927499955578</v>
+        <v>1405.290844266289</v>
       </c>
       <c r="Q36" t="n">
         <v>1511.8379027716</v>
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>198.4436275527998</v>
+        <v>718.3596126512649</v>
       </c>
       <c r="C37" t="n">
-        <v>198.4436275527998</v>
+        <v>545.7979011344898</v>
       </c>
       <c r="D37" t="n">
-        <v>198.4436275527998</v>
+        <v>379.9199083360126</v>
       </c>
       <c r="E37" t="n">
-        <v>198.4436275527998</v>
+        <v>210.1619045867498</v>
       </c>
       <c r="F37" t="n">
-        <v>198.4436275527998</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G37" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H37" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I37" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="J37" t="n">
-        <v>75.20378455015356</v>
+        <v>75.20378455015359</v>
       </c>
       <c r="K37" t="n">
-        <v>192.7956718448433</v>
+        <v>418.568562451758</v>
       </c>
       <c r="L37" t="n">
-        <v>606.7994473826047</v>
+        <v>769.144789594209</v>
       </c>
       <c r="M37" t="n">
-        <v>699.3643013096215</v>
+        <v>861.7096435212256</v>
       </c>
       <c r="N37" t="n">
-        <v>789.7281699028752</v>
+        <v>952.0735121144794</v>
       </c>
       <c r="O37" t="n">
-        <v>1203.731945440637</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P37" t="n">
-        <v>1617.735720978398</v>
+        <v>1449.542946114066</v>
       </c>
       <c r="Q37" t="n">
         <v>1667.182735391305</v>
@@ -7125,22 +7125,22 @@
         <v>1524.001055161996</v>
       </c>
       <c r="T37" t="n">
-        <v>1508.637102669822</v>
+        <v>1415.998039277409</v>
       </c>
       <c r="U37" t="n">
-        <v>1230.236965448557</v>
+        <v>1137.597902056144</v>
       </c>
       <c r="V37" t="n">
-        <v>943.2814573189876</v>
+        <v>1137.597902056144</v>
       </c>
       <c r="W37" t="n">
-        <v>671.2550529052791</v>
+        <v>1137.597902056144</v>
       </c>
       <c r="X37" t="n">
-        <v>425.8632982386915</v>
+        <v>1137.597902056144</v>
       </c>
       <c r="Y37" t="n">
-        <v>198.4436275527998</v>
+        <v>910.178231370252</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>455.8645796963087</v>
+        <v>783.7787279056888</v>
       </c>
       <c r="C38" t="n">
-        <v>455.8645796963087</v>
+        <v>783.7787279056888</v>
       </c>
       <c r="D38" t="n">
-        <v>455.8645796963087</v>
+        <v>783.7787279056888</v>
       </c>
       <c r="E38" t="n">
-        <v>33.45485054850597</v>
+        <v>783.7787279056888</v>
       </c>
       <c r="F38" t="n">
-        <v>33.45485054850597</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="G38" t="n">
-        <v>33.45485054850597</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="H38" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I38" t="n">
-        <v>83.79828774524185</v>
+        <v>83.79828774524252</v>
       </c>
       <c r="J38" t="n">
-        <v>195.5292216073324</v>
+        <v>195.5292216073331</v>
       </c>
       <c r="K38" t="n">
-        <v>362.9849282099026</v>
+        <v>362.9849282099033</v>
       </c>
       <c r="L38" t="n">
-        <v>570.7285396968683</v>
+        <v>570.728539696869</v>
       </c>
       <c r="M38" t="n">
-        <v>801.8833353847199</v>
+        <v>801.8833353847206</v>
       </c>
       <c r="N38" t="n">
         <v>1036.7784573317</v>
@@ -7201,25 +7201,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S38" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T38" t="n">
-        <v>1672.742527425299</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="U38" t="n">
-        <v>1413.627678012046</v>
+        <v>1146.395677971862</v>
       </c>
       <c r="V38" t="n">
-        <v>1051.010727945873</v>
+        <v>783.7787279056888</v>
       </c>
       <c r="W38" t="n">
-        <v>646.155273356906</v>
+        <v>783.7787279056888</v>
       </c>
       <c r="X38" t="n">
-        <v>646.155273356906</v>
+        <v>783.7787279056888</v>
       </c>
       <c r="Y38" t="n">
-        <v>646.155273356906</v>
+        <v>783.7787279056888</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>531.9672238352458</v>
+        <v>531.9672238352457</v>
       </c>
       <c r="C39" t="n">
-        <v>425.5107626718881</v>
+        <v>425.510762671888</v>
       </c>
       <c r="D39" t="n">
-        <v>330.4204738184413</v>
+        <v>330.4204738184412</v>
       </c>
       <c r="E39" t="n">
-        <v>236.300059145395</v>
+        <v>236.3000591453949</v>
       </c>
       <c r="F39" t="n">
-        <v>152.9162207615567</v>
+        <v>152.9162207615566</v>
       </c>
       <c r="G39" t="n">
         <v>68.24978812594551</v>
       </c>
       <c r="H39" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I39" t="n">
-        <v>83.769371087529</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J39" t="n">
-        <v>474.8738748284773</v>
+        <v>150.3155498622651</v>
       </c>
       <c r="K39" t="n">
-        <v>605.2485493631991</v>
+        <v>264.0535687076974</v>
       </c>
       <c r="L39" t="n">
-        <v>758.1833518442032</v>
+        <v>416.9883711887014</v>
       </c>
       <c r="M39" t="n">
-        <v>936.6510528709197</v>
+        <v>595.456072215418</v>
       </c>
       <c r="N39" t="n">
-        <v>1119.842262896595</v>
+        <v>778.6472822410933</v>
       </c>
       <c r="O39" t="n">
-        <v>1287.426430762205</v>
+        <v>946.2314501067034</v>
       </c>
       <c r="P39" t="n">
-        <v>1421.927499955578</v>
+        <v>1097.834127233839</v>
       </c>
       <c r="Q39" t="n">
         <v>1511.8379027716</v>
@@ -7295,10 +7295,10 @@
         <v>934.6243398969082</v>
       </c>
       <c r="X39" t="n">
-        <v>779.7569041357882</v>
+        <v>779.7569041357881</v>
       </c>
       <c r="Y39" t="n">
-        <v>653.271124915009</v>
+        <v>653.2711249150088</v>
       </c>
     </row>
     <row r="40">
@@ -7308,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>382.7236161035248</v>
+        <v>400.2367220278873</v>
       </c>
       <c r="C40" t="n">
-        <v>210.1619045867498</v>
+        <v>227.6750105111122</v>
       </c>
       <c r="D40" t="n">
-        <v>210.1619045867498</v>
+        <v>61.79701771263493</v>
       </c>
       <c r="E40" t="n">
-        <v>210.1619045867498</v>
+        <v>61.79701771263493</v>
       </c>
       <c r="F40" t="n">
-        <v>33.45485054850597</v>
+        <v>61.79701771263493</v>
       </c>
       <c r="G40" t="n">
-        <v>33.45485054850597</v>
+        <v>61.79701771263493</v>
       </c>
       <c r="H40" t="n">
-        <v>33.45485054850597</v>
+        <v>61.79701771263493</v>
       </c>
       <c r="I40" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="J40" t="n">
-        <v>75.20378455015356</v>
+        <v>75.20378455015359</v>
       </c>
       <c r="K40" t="n">
-        <v>418.568562451758</v>
+        <v>143.8101078806224</v>
       </c>
       <c r="L40" t="n">
-        <v>832.5723379895194</v>
+        <v>304.3051044129577</v>
       </c>
       <c r="M40" t="n">
-        <v>925.1371919165362</v>
+        <v>718.3088799507193</v>
       </c>
       <c r="N40" t="n">
-        <v>1015.50106050979</v>
+        <v>1132.312655488481</v>
       </c>
       <c r="O40" t="n">
-        <v>1098.966718971615</v>
+        <v>1546.316431026242</v>
       </c>
       <c r="P40" t="n">
-        <v>1449.542946114066</v>
+        <v>1617.735720978399</v>
       </c>
       <c r="Q40" t="n">
         <v>1667.182735391305</v>
@@ -7362,22 +7362,22 @@
         <v>1672.742527425299</v>
       </c>
       <c r="T40" t="n">
-        <v>1597.780201809965</v>
+        <v>1429.437390511417</v>
       </c>
       <c r="U40" t="n">
-        <v>1319.3800645887</v>
+        <v>1151.037253290152</v>
       </c>
       <c r="V40" t="n">
-        <v>1319.3800645887</v>
+        <v>864.0817451605828</v>
       </c>
       <c r="W40" t="n">
-        <v>1047.353660174991</v>
+        <v>592.0553407468744</v>
       </c>
       <c r="X40" t="n">
-        <v>801.9619055084038</v>
+        <v>592.0553407468744</v>
       </c>
       <c r="Y40" t="n">
-        <v>574.542234822512</v>
+        <v>592.0553407468744</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>859.6009491359854</v>
+        <v>486.1276593494694</v>
       </c>
       <c r="C41" t="n">
-        <v>437.1912199881826</v>
+        <v>63.71793020166655</v>
       </c>
       <c r="D41" t="n">
-        <v>437.1912199881826</v>
+        <v>63.71793020166655</v>
       </c>
       <c r="E41" t="n">
-        <v>437.1912199881826</v>
+        <v>63.71793020166655</v>
       </c>
       <c r="F41" t="n">
-        <v>33.45485054850597</v>
+        <v>63.71793020166655</v>
       </c>
       <c r="G41" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="H41" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I41" t="n">
         <v>83.79828774524185</v>
@@ -7420,13 +7420,13 @@
         <v>570.7285396968683</v>
       </c>
       <c r="M41" t="n">
-        <v>801.8833353847199</v>
+        <v>801.88333538472</v>
       </c>
       <c r="N41" t="n">
-        <v>1036.778457331699</v>
+        <v>1036.7784573317</v>
       </c>
       <c r="O41" t="n">
-        <v>1258.583260144775</v>
+        <v>1258.583260144776</v>
       </c>
       <c r="P41" t="n">
         <v>1447.888527710259</v>
@@ -7447,16 +7447,16 @@
         <v>1672.742527425299</v>
       </c>
       <c r="V41" t="n">
-        <v>1672.742527425299</v>
+        <v>1310.125577359125</v>
       </c>
       <c r="W41" t="n">
-        <v>1267.887072836332</v>
+        <v>905.2701227701587</v>
       </c>
       <c r="X41" t="n">
-        <v>1267.887072836332</v>
+        <v>486.1276593494694</v>
       </c>
       <c r="Y41" t="n">
-        <v>859.6009491359854</v>
+        <v>486.1276593494694</v>
       </c>
     </row>
     <row r="42">
@@ -7484,31 +7484,31 @@
         <v>68.24978812594551</v>
       </c>
       <c r="H42" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I42" t="n">
-        <v>83.769371087529</v>
+        <v>83.76937108752901</v>
       </c>
       <c r="J42" t="n">
         <v>474.8738748284774</v>
       </c>
       <c r="K42" t="n">
-        <v>588.6118936739097</v>
+        <v>605.2485493631991</v>
       </c>
       <c r="L42" t="n">
-        <v>741.5466961549138</v>
+        <v>758.1833518442032</v>
       </c>
       <c r="M42" t="n">
-        <v>920.0143971816303</v>
+        <v>936.6510528709197</v>
       </c>
       <c r="N42" t="n">
-        <v>1103.205607207306</v>
+        <v>1119.842262896595</v>
       </c>
       <c r="O42" t="n">
-        <v>1270.789775072916</v>
+        <v>1287.426430762205</v>
       </c>
       <c r="P42" t="n">
-        <v>1405.290844266289</v>
+        <v>1421.927499955578</v>
       </c>
       <c r="Q42" t="n">
         <v>1511.8379027716</v>
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>469.9485182306917</v>
+        <v>841.1867552492936</v>
       </c>
       <c r="C43" t="n">
-        <v>469.9485182306917</v>
+        <v>668.6250437325185</v>
       </c>
       <c r="D43" t="n">
-        <v>304.0705254322144</v>
+        <v>502.7470509340412</v>
       </c>
       <c r="E43" t="n">
-        <v>304.0705254322144</v>
+        <v>332.9890471847784</v>
       </c>
       <c r="F43" t="n">
-        <v>127.3634713939706</v>
+        <v>332.9890471847784</v>
       </c>
       <c r="G43" t="n">
-        <v>33.45485054850597</v>
+        <v>168.0002701804846</v>
       </c>
       <c r="H43" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I43" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="J43" t="n">
-        <v>75.20378455015356</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K43" t="n">
-        <v>143.8101078806224</v>
+        <v>359.9133944508748</v>
       </c>
       <c r="L43" t="n">
-        <v>304.3051044129576</v>
+        <v>447.7058679834638</v>
       </c>
       <c r="M43" t="n">
-        <v>718.308879950719</v>
+        <v>861.7096435212253</v>
       </c>
       <c r="N43" t="n">
-        <v>1132.31265548848</v>
+        <v>952.0735121144789</v>
       </c>
       <c r="O43" t="n">
-        <v>1546.316431026242</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P43" t="n">
-        <v>1617.735720978398</v>
+        <v>1449.542946114066</v>
       </c>
       <c r="Q43" t="n">
         <v>1667.182735391305</v>
@@ -7596,25 +7596,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S43" t="n">
-        <v>1524.001055161996</v>
+        <v>1649.84753751401</v>
       </c>
       <c r="T43" t="n">
-        <v>1280.695918248114</v>
+        <v>1406.542400600128</v>
       </c>
       <c r="U43" t="n">
-        <v>1002.295781026849</v>
+        <v>1128.142263378863</v>
       </c>
       <c r="V43" t="n">
-        <v>715.3402728972792</v>
+        <v>841.1867552492936</v>
       </c>
       <c r="W43" t="n">
-        <v>715.3402728972792</v>
+        <v>841.1867552492936</v>
       </c>
       <c r="X43" t="n">
-        <v>469.9485182306917</v>
+        <v>841.1867552492936</v>
       </c>
       <c r="Y43" t="n">
-        <v>469.9485182306917</v>
+        <v>841.1867552492936</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1672.742527425299</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="C44" t="n">
-        <v>1300.684037991915</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="D44" t="n">
-        <v>878.2743088441118</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="E44" t="n">
-        <v>455.8645796963089</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="F44" t="n">
-        <v>33.45485054850599</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="G44" t="n">
-        <v>33.45485054850599</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="H44" t="n">
         <v>33.45485054850599</v>
       </c>
       <c r="I44" t="n">
-        <v>83.79828774524211</v>
+        <v>83.79828774524199</v>
       </c>
       <c r="J44" t="n">
-        <v>195.5292216073327</v>
+        <v>195.5292216073326</v>
       </c>
       <c r="K44" t="n">
-        <v>362.9849282099031</v>
+        <v>362.9849282099029</v>
       </c>
       <c r="L44" t="n">
-        <v>570.7285396968689</v>
+        <v>570.7285396968687</v>
       </c>
       <c r="M44" t="n">
-        <v>801.8833353847205</v>
+        <v>801.8833353847202</v>
       </c>
       <c r="N44" t="n">
         <v>1036.7784573317</v>
@@ -7669,31 +7669,31 @@
         <v>1447.888527710259</v>
       </c>
       <c r="Q44" t="n">
-        <v>1590.048899840627</v>
+        <v>1590.048899840628</v>
       </c>
       <c r="R44" t="n">
         <v>1672.742527425299</v>
       </c>
       <c r="S44" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T44" t="n">
-        <v>1672.742527425299</v>
+        <v>1476.35637778266</v>
       </c>
       <c r="U44" t="n">
-        <v>1672.742527425299</v>
+        <v>1476.35637778266</v>
       </c>
       <c r="V44" t="n">
-        <v>1672.742527425299</v>
+        <v>1113.739427716486</v>
       </c>
       <c r="W44" t="n">
-        <v>1672.742527425299</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="X44" t="n">
-        <v>1672.742527425299</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="Y44" t="n">
-        <v>1672.742527425299</v>
+        <v>708.8839731275193</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>531.9672238352458</v>
+        <v>531.9672238352459</v>
       </c>
       <c r="C45" t="n">
-        <v>425.5107626718881</v>
+        <v>425.5107626718882</v>
       </c>
       <c r="D45" t="n">
-        <v>330.4204738184413</v>
+        <v>330.4204738184415</v>
       </c>
       <c r="E45" t="n">
-        <v>236.300059145395</v>
+        <v>236.3000591453952</v>
       </c>
       <c r="F45" t="n">
-        <v>152.9162207615567</v>
+        <v>152.9162207615568</v>
       </c>
       <c r="G45" t="n">
         <v>68.24978812594551</v>
@@ -7730,22 +7730,22 @@
         <v>474.8738748284774</v>
       </c>
       <c r="K45" t="n">
-        <v>588.6118936739097</v>
+        <v>605.2485493631991</v>
       </c>
       <c r="L45" t="n">
-        <v>741.5466961549138</v>
+        <v>758.1833518442032</v>
       </c>
       <c r="M45" t="n">
-        <v>920.0143971816303</v>
+        <v>936.6510528709197</v>
       </c>
       <c r="N45" t="n">
-        <v>1103.205607207306</v>
+        <v>1119.842262896595</v>
       </c>
       <c r="O45" t="n">
-        <v>1270.789775072916</v>
+        <v>1287.426430762205</v>
       </c>
       <c r="P45" t="n">
-        <v>1405.290844266289</v>
+        <v>1421.927499955579</v>
       </c>
       <c r="Q45" t="n">
         <v>1511.8379027716</v>
@@ -7766,13 +7766,13 @@
         <v>1119.947094163714</v>
       </c>
       <c r="W45" t="n">
-        <v>934.6243398969082</v>
+        <v>934.6243398969084</v>
       </c>
       <c r="X45" t="n">
-        <v>779.7569041357882</v>
+        <v>779.7569041357883</v>
       </c>
       <c r="Y45" t="n">
-        <v>653.271124915009</v>
+        <v>653.2711249150091</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>210.1619045867498</v>
+        <v>547.7123931078187</v>
       </c>
       <c r="C46" t="n">
-        <v>210.1619045867498</v>
+        <v>375.1506815910436</v>
       </c>
       <c r="D46" t="n">
-        <v>210.1619045867498</v>
+        <v>375.1506815910436</v>
       </c>
       <c r="E46" t="n">
-        <v>210.1619045867498</v>
+        <v>375.1506815910436</v>
       </c>
       <c r="F46" t="n">
-        <v>33.45485054850599</v>
+        <v>198.4436275527998</v>
       </c>
       <c r="G46" t="n">
         <v>33.45485054850599</v>
@@ -7812,16 +7812,16 @@
         <v>505.1482476164479</v>
       </c>
       <c r="L46" t="n">
-        <v>769.144789594209</v>
+        <v>592.940721149037</v>
       </c>
       <c r="M46" t="n">
-        <v>861.7096435212256</v>
+        <v>873.7560120308949</v>
       </c>
       <c r="N46" t="n">
-        <v>952.0735121144794</v>
+        <v>964.1198806241488</v>
       </c>
       <c r="O46" t="n">
-        <v>1035.539170576305</v>
+        <v>1378.12365616191</v>
       </c>
       <c r="P46" t="n">
         <v>1449.542946114066</v>
@@ -7839,19 +7839,19 @@
         <v>1672.742527425299</v>
       </c>
       <c r="U46" t="n">
-        <v>1433.773861201494</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="V46" t="n">
-        <v>1146.818353071925</v>
+        <v>1385.78701929573</v>
       </c>
       <c r="W46" t="n">
-        <v>874.7919486582161</v>
+        <v>1113.760614882021</v>
       </c>
       <c r="X46" t="n">
-        <v>629.4001939916286</v>
+        <v>966.9506825126975</v>
       </c>
       <c r="Y46" t="n">
-        <v>401.9805233057369</v>
+        <v>739.5310118268058</v>
       </c>
     </row>
   </sheetData>
@@ -8771,7 +8771,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>16.8047027164539</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>16.8047027164537</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>73.4368919189353</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>177.9839075203756</v>
       </c>
       <c r="M13" t="n">
-        <v>324.6857794047926</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>326.9089969136442</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>333.876885935289</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>16.8047027164539</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>16.80470271645419</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9093,16 +9093,16 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>324.6857794047927</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>177.9839075203755</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>346.0449349349548</v>
+        <v>199.3430630505377</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821538</v>
@@ -9245,7 +9245,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>16.8047027164539</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>16.80470271645413</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9321,16 +9321,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>265.4381349594563</v>
       </c>
       <c r="M19" t="n">
-        <v>324.6857794047927</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -9339,7 +9339,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>199.3430630505379</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821538</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>43.13164530277484</v>
+        <v>16.8047027164539</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>73.4368919189356</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>324.6857794047928</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>326.9089969136442</v>
       </c>
       <c r="O22" t="n">
-        <v>177.9839075203755</v>
+        <v>333.8768859352888</v>
       </c>
       <c r="P22" t="n">
-        <v>346.0449349349548</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>16.80470271645345</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>17.27435144824426</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.3670431532728</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9795,13 +9795,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>265.4381349594563</v>
+        <v>177.9839075203756</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -9813,7 +9813,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>346.0449349349548</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821538</v>
@@ -9956,7 +9956,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>16.80470271645402</v>
+        <v>16.80470271645345</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -10032,13 +10032,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>329.5063656617904</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -10047,10 +10047,10 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>177.9839075203756</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9767042326209</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q28" t="n">
         <v>169.8916917821538</v>
@@ -10190,7 +10190,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>282.3259660044325</v>
       </c>
       <c r="Q30" t="n">
-        <v>16.8047027164539</v>
+        <v>62.31542859708406</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10275,10 +10275,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>177.9839075203756</v>
       </c>
       <c r="M31" t="n">
-        <v>177.9839075203757</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -10287,7 +10287,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>346.0449349349548</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q31" t="n">
         <v>169.8916917821538</v>
@@ -10430,7 +10430,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>16.80470271645345</v>
+        <v>16.8047027164539</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10506,16 +10506,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>329.5063656617903</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>324.6857794047927</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -10524,7 +10524,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9767042326205</v>
+        <v>199.3430630505372</v>
       </c>
       <c r="Q34" t="n">
         <v>169.8916917821538</v>
@@ -10667,7 +10667,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>16.80470271645402</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>16.8047027164539</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10746,10 +10746,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>49.48036764062718</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>329.5063656617903</v>
+        <v>265.4381349594564</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -10758,13 +10758,13 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>333.8768859352887</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>346.0449349349547</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10901,10 +10901,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>16.80470271645402</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>17.27435144824426</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>327.3670431532728</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -10983,25 +10983,25 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>329.5063656617903</v>
+        <v>73.43689191893563</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>324.6857794047928</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>326.9089969136442</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>333.876885935289</v>
       </c>
       <c r="P40" t="n">
-        <v>281.9767042326205</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>16.8047027164539</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>16.8047027164539</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>130.8319206116793</v>
       </c>
       <c r="L43" t="n">
-        <v>73.43689191893549</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>324.6857794047926</v>
       </c>
       <c r="N43" t="n">
-        <v>326.9089969136441</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>333.8768859352887</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>16.8047027164539</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>16.8047027164539</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -11460,19 +11460,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>177.9839075203757</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>190.1519565200416</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>333.8768859352888</v>
       </c>
       <c r="P46" t="n">
-        <v>346.0449349349548</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821538</v>
@@ -23260,22 +23260,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>15.57541623208607</v>
       </c>
       <c r="D11" t="n">
-        <v>13.36505512097517</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>11.25136553696302</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>5.403123438559589</v>
+        <v>246.5451989619187</v>
       </c>
       <c r="G11" t="n">
-        <v>396.054118850051</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>52.51403670113842</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T11" t="n">
         <v>212.0456433386444</v>
@@ -23317,7 +23317,7 @@
         <v>256.5237009191198</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -23326,7 +23326,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>35.86535792429248</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>155.6116700501651</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I13" t="n">
-        <v>69.83578017384922</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>240.8720855447433</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>168.3121078843818</v>
       </c>
     </row>
     <row r="14">
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>3.85094292373384</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>13.36505512097506</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>11.25136553696291</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>5.403123438559476</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H14" t="n">
         <v>272.6207125031721</v>
@@ -23554,13 +23554,13 @@
         <v>256.5237009191198</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>366.0936699934217</v>
+        <v>46.61313424743156</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -23658,19 +23658,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H16" t="n">
-        <v>82.68356574187882</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I16" t="n">
         <v>69.83578017384922</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>147.2540575406698</v>
+        <v>62.32288334323948</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>328.1407135851941</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -23746,7 +23746,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>352.1113006004401</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H17" t="n">
         <v>272.6207125031721</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>52.51403670113842</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>212.0456433386444</v>
       </c>
       <c r="U17" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I19" t="n">
         <v>69.83578017384922</v>
@@ -23940,25 +23940,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>106.0878070671532</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>131.9132610870457</v>
       </c>
     </row>
     <row r="20">
@@ -23977,16 +23977,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>11.25136553696291</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>396.054118850051</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>52.51403670113842</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>326.6610928126892</v>
       </c>
       <c r="X20" t="n">
-        <v>15.25203304120197</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,16 +24135,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>117.3556327834518</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I22" t="n">
         <v>69.83578017384922</v>
@@ -24186,13 +24186,13 @@
         <v>275.6161358490523</v>
       </c>
       <c r="V22" t="n">
-        <v>203.0489982734667</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24220,10 +24220,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>396.054118850051</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>52.51403670113842</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>9.675487221671005</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>70.13739189356932</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24372,19 +24372,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>69.83578017384922</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>166.6593831855621</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>213.7950218841665</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -24445,22 +24445,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>15.57541623208613</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>13.36505512097511</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>11.25136553696296</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>396.054118850051</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>52.51403670113842</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>247.1765769455808</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>382.6213510336598</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.57338495322797</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>133.1999654356588</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>100.3904774536291</v>
       </c>
       <c r="T28" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>275.6161358490523</v>
@@ -24694,10 +24694,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>396.054118850051</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>52.51403670113842</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>168.1028250890334</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>330.0574552329554</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>69.83578017384922</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>138.9734572283705</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>283.6480778829492</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>15.57541623208618</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
@@ -24931,7 +24931,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>193.6839627330781</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>272.6207125031721</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>52.51403670113842</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>71.41911212276526</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,22 +25128,22 @@
         <v>147.2540575406698</v>
       </c>
       <c r="T34" t="n">
-        <v>77.45354127303901</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>32.15759650139429</v>
       </c>
     </row>
     <row r="35">
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>3.85094292373384</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>15.57541623208607</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
@@ -25168,7 +25168,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>193.6839627330781</v>
+        <v>180.5670063588315</v>
       </c>
       <c r="H35" t="n">
         <v>272.6207125031721</v>
@@ -25207,22 +25207,22 @@
         <v>52.51403670113842</v>
       </c>
       <c r="T35" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H37" t="n">
         <v>133.1999654356588</v>
@@ -25365,19 +25365,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.6617725774914</v>
+        <v>133.9490998190014</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>233.6487880560674</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -25399,16 +25399,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>11.25136553696308</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>349.4429480644965</v>
       </c>
       <c r="G38" t="n">
-        <v>396.054118850051</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>52.51403670113842</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25453,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>163.3388892342509</v>
@@ -25569,7 +25569,7 @@
         <v>133.1999654356588</v>
       </c>
       <c r="I40" t="n">
-        <v>69.83578017384922</v>
+        <v>41.77703468136157</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,22 +25602,22 @@
         <v>147.2540575406698</v>
       </c>
       <c r="T40" t="n">
-        <v>166.6593831855626</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -25630,7 +25630,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>15.57541623208624</v>
+        <v>15.57541623208618</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -25639,10 +25639,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>23.88974954960446</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>396.054118850051</v>
+        <v>366.0936699934221</v>
       </c>
       <c r="H41" t="n">
         <v>272.6207125031721</v>
@@ -25687,16 +25687,16 @@
         <v>256.5237009191198</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25788,22 +25788,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>70.36935459724097</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>69.83578017384922</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>124.5880175284939</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -25867,22 +25867,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>65.42314354936008</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>13.36505512097506</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>11.25136553696291</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>5.403123438559476</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>396.054118850051</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>52.51403670113842</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>212.0456433386444</v>
+        <v>70.13739189356937</v>
       </c>
       <c r="U44" t="n">
         <v>256.5237009191198</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>133.1999654356588</v>
@@ -26079,7 +26079,7 @@
         <v>240.8720855447433</v>
       </c>
       <c r="U46" t="n">
-        <v>39.03715628748508</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>97.59600407429105</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>335261.5325253358</v>
+        <v>335261.5325253359</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>335261.5325253358</v>
+        <v>335261.5325253359</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>335261.5325253358</v>
+        <v>335261.532525336</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>335261.5325253358</v>
+        <v>335261.5325253359</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>335261.5325253358</v>
+        <v>335261.5325253359</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>335261.5325253358</v>
+        <v>335261.5325253359</v>
       </c>
     </row>
   </sheetData>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>390603.752983759</v>
+        <v>390603.7529837591</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26432,7 +26432,7 @@
         <v>13056.95251542856</v>
       </c>
       <c r="G4" t="n">
-        <v>13056.95251542857</v>
+        <v>13056.95251542856</v>
       </c>
       <c r="H4" t="n">
         <v>13056.95251542856</v>
@@ -26447,7 +26447,7 @@
         <v>13056.95251542856</v>
       </c>
       <c r="L4" t="n">
-        <v>13056.95251542855</v>
+        <v>13056.95251542856</v>
       </c>
       <c r="M4" t="n">
         <v>13056.95251542856</v>
@@ -26478,22 +26478,22 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>32636.5026199642</v>
+        <v>32636.50261996421</v>
       </c>
       <c r="F5" t="n">
         <v>32636.50261996421</v>
       </c>
       <c r="G5" t="n">
-        <v>32636.5026199642</v>
+        <v>32636.50261996421</v>
       </c>
       <c r="H5" t="n">
         <v>32636.50261996421</v>
       </c>
       <c r="I5" t="n">
-        <v>32636.5026199642</v>
+        <v>32636.50261996421</v>
       </c>
       <c r="J5" t="n">
-        <v>32636.5026199642</v>
+        <v>32636.50261996421</v>
       </c>
       <c r="K5" t="n">
         <v>32636.50261996421</v>
@@ -26502,10 +26502,10 @@
         <v>32636.5026199642</v>
       </c>
       <c r="M5" t="n">
-        <v>32636.5026199642</v>
+        <v>32636.50261996421</v>
       </c>
       <c r="N5" t="n">
-        <v>32636.5026199642</v>
+        <v>32636.50261996421</v>
       </c>
       <c r="O5" t="n">
         <v>32636.5026199642</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="E6" t="n">
-        <v>-332832.2538674317</v>
+        <v>-333564.0047892064</v>
       </c>
       <c r="F6" t="n">
-        <v>57771.49911632737</v>
+        <v>57039.74819455263</v>
       </c>
       <c r="G6" t="n">
-        <v>57771.49911632735</v>
+        <v>57039.74819455262</v>
       </c>
       <c r="H6" t="n">
-        <v>57771.49911632735</v>
+        <v>57039.7481945526</v>
       </c>
       <c r="I6" t="n">
-        <v>57771.49911632734</v>
+        <v>57039.74819455259</v>
       </c>
       <c r="J6" t="n">
-        <v>57771.49911632731</v>
+        <v>57039.74819455259</v>
       </c>
       <c r="K6" t="n">
-        <v>57771.49911632735</v>
+        <v>57039.74819455257</v>
       </c>
       <c r="L6" t="n">
-        <v>57771.49911632731</v>
+        <v>57039.74819455258</v>
       </c>
       <c r="M6" t="n">
-        <v>-46442.03308479623</v>
+        <v>-47173.78400657099</v>
       </c>
       <c r="N6" t="n">
-        <v>57771.49911632734</v>
+        <v>57039.74819455262</v>
       </c>
       <c r="O6" t="n">
-        <v>57771.49911632734</v>
+        <v>57039.74819455261</v>
       </c>
       <c r="P6" t="n">
-        <v>57771.49911632737</v>
+        <v>57039.74819455262</v>
       </c>
     </row>
   </sheetData>
@@ -26746,25 +26746,25 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="F3" t="n">
         <v>330.7713854632871</v>
       </c>
       <c r="G3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="H3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="I3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="J3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="K3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="L3" t="n">
         <v>330.7713854632871</v>
@@ -26779,7 +26779,7 @@
         <v>330.7713854632871</v>
       </c>
       <c r="P3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
     </row>
     <row r="4">
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>418.1856318563247</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="F4" t="n">
         <v>418.1856318563248</v>
@@ -26822,10 +26822,10 @@
         <v>418.1856318563247</v>
       </c>
       <c r="M4" t="n">
-        <v>418.1856318563247</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="N4" t="n">
-        <v>418.1856318563247</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="O4" t="n">
         <v>418.1856318563247</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>418.1856318563247</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>418.1856318563247</v>
+        <v>418.185631856325</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>418.1856318563247</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31758,7 +31758,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I11" t="n">
-        <v>51.26457824351107</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J11" t="n">
         <v>112.8595291536268</v>
@@ -31767,13 +31767,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L11" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M11" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N11" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O11" t="n">
         <v>224.0452553667434</v>
@@ -31785,13 +31785,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R11" t="n">
-        <v>83.52891675219382</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S11" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T11" t="n">
-        <v>5.820911517047393</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U11" t="n">
         <v>0.1063787370334189</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H12" t="n">
-        <v>6.871307460284513</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I12" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J12" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K12" t="n">
         <v>114.8868877226589</v>
@@ -31861,10 +31861,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.81858870305197</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R12" t="n">
-        <v>44.17358238319146</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S12" t="n">
         <v>13.21525299468887</v>
@@ -31873,7 +31873,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.596472990179698</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H13" t="n">
-        <v>5.30318713087041</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I13" t="n">
         <v>17.9375695592222</v>
@@ -31922,25 +31922,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K13" t="n">
-        <v>69.29931649542308</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L13" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M13" t="n">
-        <v>93.49985245153211</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N13" t="n">
-        <v>91.27663494268057</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O13" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P13" t="n">
-        <v>72.14069692136999</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q13" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R13" t="n">
         <v>26.81959463117078</v>
@@ -31952,7 +31952,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32232,7 +32232,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I17" t="n">
-        <v>51.26457824351106</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J17" t="n">
         <v>112.8595291536268</v>
@@ -32241,31 +32241,31 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L17" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M17" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N17" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O17" t="n">
         <v>224.0452553667434</v>
       </c>
       <c r="P17" t="n">
-        <v>191.2174419853367</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q17" t="n">
         <v>143.5963354852203</v>
       </c>
       <c r="R17" t="n">
-        <v>83.52891675219381</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S17" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T17" t="n">
-        <v>5.820911517047392</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U17" t="n">
         <v>0.1063787370334189</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7114705272229194</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H18" t="n">
-        <v>6.871307460284512</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I18" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J18" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K18" t="n">
         <v>114.8868877226589</v>
       </c>
       <c r="L18" t="n">
-        <v>154.4795984656606</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M18" t="n">
-        <v>180.2704050774914</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N18" t="n">
         <v>185.041626288561</v>
       </c>
       <c r="O18" t="n">
-        <v>169.2769372379899</v>
+        <v>169.27693723799</v>
       </c>
       <c r="P18" t="n">
         <v>135.8596658518924</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.81858870305196</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R18" t="n">
-        <v>44.17358238319145</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S18" t="n">
         <v>13.21525299468887</v>
       </c>
       <c r="T18" t="n">
-        <v>2.867725502271327</v>
+        <v>2.867725502271328</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04680727152782366</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5964729901796979</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H19" t="n">
-        <v>5.303187130870409</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I19" t="n">
-        <v>17.93756955922219</v>
+        <v>17.9375695592222</v>
       </c>
       <c r="J19" t="n">
-        <v>42.17064040570464</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K19" t="n">
-        <v>69.29931649542307</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L19" t="n">
-        <v>88.67926619453438</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M19" t="n">
-        <v>93.49985245153209</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N19" t="n">
-        <v>91.27663494268056</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O19" t="n">
-        <v>84.30874592103588</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P19" t="n">
-        <v>72.14069692136998</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q19" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R19" t="n">
-        <v>26.81959463117077</v>
+        <v>26.81959463117078</v>
       </c>
       <c r="S19" t="n">
         <v>10.39489747431346</v>
       </c>
       <c r="T19" t="n">
-        <v>2.548566412585981</v>
+        <v>2.548566412585982</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0325348903734381</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I20" t="n">
-        <v>51.26457824351107</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J20" t="n">
         <v>112.8595291536268</v>
@@ -32478,13 +32478,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L20" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M20" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N20" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O20" t="n">
         <v>224.0452553667434</v>
@@ -32496,13 +32496,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R20" t="n">
-        <v>83.52891675219382</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S20" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T20" t="n">
-        <v>5.820911517047393</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U20" t="n">
         <v>0.1063787370334189</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H21" t="n">
-        <v>6.871307460284513</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I21" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J21" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K21" t="n">
         <v>114.8868877226589</v>
@@ -32572,10 +32572,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.81858870305197</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R21" t="n">
-        <v>44.17358238319146</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S21" t="n">
         <v>13.21525299468887</v>
@@ -32584,7 +32584,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.596472990179698</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H22" t="n">
-        <v>5.30318713087041</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I22" t="n">
         <v>17.9375695592222</v>
@@ -32633,25 +32633,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K22" t="n">
-        <v>69.29931649542308</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L22" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M22" t="n">
-        <v>93.49985245153211</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N22" t="n">
-        <v>91.27663494268057</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O22" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P22" t="n">
-        <v>72.14069692136999</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q22" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R22" t="n">
         <v>26.81959463117078</v>
@@ -32663,7 +32663,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,7 +32706,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I23" t="n">
-        <v>51.26457824351106</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J23" t="n">
         <v>112.8595291536268</v>
@@ -32715,31 +32715,31 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L23" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M23" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N23" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O23" t="n">
         <v>224.0452553667434</v>
       </c>
       <c r="P23" t="n">
-        <v>191.2174419853367</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q23" t="n">
         <v>143.5963354852203</v>
       </c>
       <c r="R23" t="n">
-        <v>83.52891675219381</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S23" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T23" t="n">
-        <v>5.820911517047392</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U23" t="n">
         <v>0.1063787370334189</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7114705272229194</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H24" t="n">
-        <v>6.871307460284512</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I24" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J24" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K24" t="n">
         <v>114.8868877226589</v>
       </c>
       <c r="L24" t="n">
-        <v>154.4795984656606</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M24" t="n">
-        <v>180.2704050774914</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N24" t="n">
         <v>185.041626288561</v>
       </c>
       <c r="O24" t="n">
-        <v>169.2769372379899</v>
+        <v>169.27693723799</v>
       </c>
       <c r="P24" t="n">
         <v>135.8596658518924</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.81858870305196</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R24" t="n">
-        <v>44.17358238319145</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S24" t="n">
         <v>13.21525299468887</v>
       </c>
       <c r="T24" t="n">
-        <v>2.867725502271327</v>
+        <v>2.867725502271328</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04680727152782366</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5964729901796979</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H25" t="n">
-        <v>5.303187130870409</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I25" t="n">
-        <v>17.93756955922219</v>
+        <v>17.9375695592222</v>
       </c>
       <c r="J25" t="n">
-        <v>42.17064040570464</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K25" t="n">
-        <v>69.29931649542307</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L25" t="n">
-        <v>88.67926619453438</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M25" t="n">
-        <v>93.49985245153209</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N25" t="n">
-        <v>91.27663494268056</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O25" t="n">
-        <v>84.30874592103588</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P25" t="n">
-        <v>72.14069692136998</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q25" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R25" t="n">
-        <v>26.81959463117077</v>
+        <v>26.81959463117078</v>
       </c>
       <c r="S25" t="n">
         <v>10.39489747431346</v>
       </c>
       <c r="T25" t="n">
-        <v>2.548566412585981</v>
+        <v>2.548566412585982</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0325348903734381</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,7 +32943,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I26" t="n">
-        <v>51.26457824351106</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J26" t="n">
         <v>112.8595291536268</v>
@@ -32952,31 +32952,31 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L26" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M26" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N26" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O26" t="n">
         <v>224.0452553667434</v>
       </c>
       <c r="P26" t="n">
-        <v>191.2174419853367</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q26" t="n">
         <v>143.5963354852203</v>
       </c>
       <c r="R26" t="n">
-        <v>83.52891675219381</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S26" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T26" t="n">
-        <v>5.820911517047392</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U26" t="n">
         <v>0.1063787370334189</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7114705272229194</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H27" t="n">
-        <v>6.871307460284512</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I27" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J27" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K27" t="n">
         <v>114.8868877226589</v>
       </c>
       <c r="L27" t="n">
-        <v>154.4795984656606</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M27" t="n">
-        <v>180.2704050774914</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N27" t="n">
         <v>185.041626288561</v>
       </c>
       <c r="O27" t="n">
-        <v>169.2769372379899</v>
+        <v>169.27693723799</v>
       </c>
       <c r="P27" t="n">
         <v>135.8596658518924</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.81858870305196</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R27" t="n">
-        <v>44.17358238319145</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S27" t="n">
         <v>13.21525299468887</v>
       </c>
       <c r="T27" t="n">
-        <v>2.867725502271327</v>
+        <v>2.867725502271328</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04680727152782366</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5964729901796979</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H28" t="n">
-        <v>5.303187130870409</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I28" t="n">
-        <v>17.93756955922219</v>
+        <v>17.9375695592222</v>
       </c>
       <c r="J28" t="n">
-        <v>42.17064040570464</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K28" t="n">
-        <v>69.29931649542307</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L28" t="n">
-        <v>88.67926619453438</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M28" t="n">
-        <v>93.49985245153209</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N28" t="n">
-        <v>91.27663494268056</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O28" t="n">
-        <v>84.30874592103588</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P28" t="n">
-        <v>72.14069692136998</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q28" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R28" t="n">
-        <v>26.81959463117077</v>
+        <v>26.81959463117078</v>
       </c>
       <c r="S28" t="n">
         <v>10.39489747431346</v>
       </c>
       <c r="T28" t="n">
-        <v>2.548566412585981</v>
+        <v>2.548566412585982</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0325348903734381</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,7 +33180,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I29" t="n">
-        <v>51.26457824351107</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J29" t="n">
         <v>112.8595291536268</v>
@@ -33189,13 +33189,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L29" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M29" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N29" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O29" t="n">
         <v>224.0452553667434</v>
@@ -33207,13 +33207,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R29" t="n">
-        <v>83.52891675219382</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S29" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T29" t="n">
-        <v>5.820911517047393</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U29" t="n">
         <v>0.1063787370334189</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H30" t="n">
-        <v>6.871307460284513</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I30" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J30" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K30" t="n">
         <v>114.8868877226589</v>
@@ -33283,10 +33283,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.81858870305197</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R30" t="n">
-        <v>44.17358238319146</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S30" t="n">
         <v>13.21525299468887</v>
@@ -33295,7 +33295,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.596472990179698</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H31" t="n">
-        <v>5.30318713087041</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I31" t="n">
         <v>17.9375695592222</v>
@@ -33344,25 +33344,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K31" t="n">
-        <v>69.29931649542308</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L31" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M31" t="n">
-        <v>93.49985245153211</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N31" t="n">
-        <v>91.27663494268057</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O31" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P31" t="n">
-        <v>72.14069692136999</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q31" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R31" t="n">
         <v>26.81959463117078</v>
@@ -33374,7 +33374,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I44" t="n">
-        <v>51.26457824351107</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J44" t="n">
         <v>112.8595291536268</v>
@@ -34374,13 +34374,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L44" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M44" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N44" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O44" t="n">
         <v>224.0452553667434</v>
@@ -34392,13 +34392,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R44" t="n">
-        <v>83.52891675219382</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S44" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T44" t="n">
-        <v>5.820911517047393</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U44" t="n">
         <v>0.1063787370334189</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H45" t="n">
-        <v>6.871307460284513</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I45" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J45" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K45" t="n">
         <v>114.8868877226589</v>
@@ -34468,10 +34468,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.81858870305197</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R45" t="n">
-        <v>44.17358238319146</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S45" t="n">
         <v>13.21525299468887</v>
@@ -34480,7 +34480,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,10 +34517,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.596472990179698</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H46" t="n">
-        <v>5.30318713087041</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I46" t="n">
         <v>17.9375695592222</v>
@@ -34529,25 +34529,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K46" t="n">
-        <v>69.29931649542308</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L46" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M46" t="n">
-        <v>93.49985245153211</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N46" t="n">
-        <v>91.27663494268057</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O46" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P46" t="n">
-        <v>72.14069692136999</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q46" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R46" t="n">
         <v>26.81959463117078</v>
@@ -34559,7 +34559,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>50.85195676437968</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J11" t="n">
         <v>112.8595291536268</v>
@@ -35415,13 +35415,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L11" t="n">
-        <v>209.8420318050159</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M11" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139918</v>
       </c>
       <c r="N11" t="n">
-        <v>237.2677999464443</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O11" t="n">
         <v>224.0452553667433</v>
@@ -35430,10 +35430,10 @@
         <v>191.2174419853368</v>
       </c>
       <c r="Q11" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R11" t="n">
-        <v>83.52891675219394</v>
+        <v>83.52891675219371</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>50.8227480192152</v>
+        <v>50.82274801921519</v>
       </c>
       <c r="J12" t="n">
         <v>395.0550542837863</v>
       </c>
       <c r="K12" t="n">
-        <v>114.8868877226589</v>
+        <v>131.6915904391128</v>
       </c>
       <c r="L12" t="n">
         <v>154.4795984656607</v>
@@ -35503,13 +35503,13 @@
         <v>185.041626288561</v>
       </c>
       <c r="O12" t="n">
-        <v>169.2769372379898</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P12" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q12" t="n">
-        <v>107.6232914195057</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R12" t="n">
         <v>162.5299238926254</v>
@@ -35567,31 +35567,31 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>115.6075323246399</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K13" t="n">
-        <v>69.29931649542308</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L13" t="n">
-        <v>88.67926619453439</v>
+        <v>266.66317371491</v>
       </c>
       <c r="M13" t="n">
-        <v>418.1856318563247</v>
+        <v>93.49985245153209</v>
       </c>
       <c r="N13" t="n">
+        <v>91.27663494268063</v>
+      </c>
+      <c r="O13" t="n">
+        <v>84.30874592103589</v>
+      </c>
+      <c r="P13" t="n">
         <v>418.1856318563248</v>
       </c>
-      <c r="O13" t="n">
-        <v>418.1856318563248</v>
-      </c>
-      <c r="P13" t="n">
-        <v>72.14069692136991</v>
-      </c>
       <c r="Q13" t="n">
-        <v>49.9464792049564</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R13" t="n">
-        <v>5.615951549488944</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35646,13 +35646,13 @@
         <v>50.85195676437968</v>
       </c>
       <c r="J14" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K14" t="n">
-        <v>169.1471783864346</v>
+        <v>169.1471783864347</v>
       </c>
       <c r="L14" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050157</v>
       </c>
       <c r="M14" t="n">
         <v>233.4896926139916</v>
@@ -35661,16 +35661,16 @@
         <v>237.2677999464443</v>
       </c>
       <c r="O14" t="n">
-        <v>224.0452553667433</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P14" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q14" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R14" t="n">
-        <v>83.52891675219394</v>
+        <v>83.52891675219348</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>395.0550542837863</v>
       </c>
       <c r="K15" t="n">
-        <v>114.8868877226589</v>
+        <v>131.6915904391128</v>
       </c>
       <c r="L15" t="n">
         <v>154.4795984656607</v>
@@ -35740,10 +35740,10 @@
         <v>185.041626288561</v>
       </c>
       <c r="O15" t="n">
-        <v>169.2769372379898</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P15" t="n">
-        <v>152.6643685683466</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q15" t="n">
         <v>90.818588703052</v>
@@ -35813,19 +35813,19 @@
         <v>88.67926619453442</v>
       </c>
       <c r="M16" t="n">
-        <v>93.49985245153209</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="N16" t="n">
-        <v>91.27663494268052</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O16" t="n">
-        <v>262.2926534414114</v>
+        <v>84.30874592103601</v>
       </c>
       <c r="P16" t="n">
-        <v>418.1856318563248</v>
+        <v>271.4837599719076</v>
       </c>
       <c r="Q16" t="n">
-        <v>219.8381709871103</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R16" t="n">
         <v>5.615951549488944</v>
@@ -35880,22 +35880,22 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>50.85195676437966</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J17" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K17" t="n">
         <v>169.1471783864346</v>
       </c>
       <c r="L17" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M17" t="n">
         <v>233.4896926139916</v>
       </c>
       <c r="N17" t="n">
-        <v>237.267799946444</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O17" t="n">
         <v>224.0452553667435</v>
@@ -35904,10 +35904,10 @@
         <v>191.2174419853368</v>
       </c>
       <c r="Q17" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R17" t="n">
-        <v>83.52891675219371</v>
+        <v>83.52891675219394</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>50.82274801921518</v>
+        <v>50.82274801921519</v>
       </c>
       <c r="J18" t="n">
         <v>395.0550542837863</v>
       </c>
       <c r="K18" t="n">
-        <v>114.8868877226589</v>
+        <v>131.6915904391128</v>
       </c>
       <c r="L18" t="n">
-        <v>154.4795984656606</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M18" t="n">
         <v>180.2704050774914</v>
       </c>
       <c r="N18" t="n">
-        <v>185.0416262885609</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O18" t="n">
-        <v>169.2769372379898</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P18" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q18" t="n">
-        <v>107.6232914195061</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R18" t="n">
         <v>162.5299238926254</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>129.6248678447853</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K19" t="n">
-        <v>346.8331089915196</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L19" t="n">
-        <v>88.67926619453436</v>
+        <v>354.1174011539907</v>
       </c>
       <c r="M19" t="n">
+        <v>93.49985245153209</v>
+      </c>
+      <c r="N19" t="n">
+        <v>91.27663494268063</v>
+      </c>
+      <c r="O19" t="n">
+        <v>84.30874592103589</v>
+      </c>
+      <c r="P19" t="n">
         <v>418.1856318563248</v>
-      </c>
-      <c r="N19" t="n">
-        <v>91.27663494268052</v>
-      </c>
-      <c r="O19" t="n">
-        <v>84.30874592103578</v>
-      </c>
-      <c r="P19" t="n">
-        <v>271.4837599719078</v>
       </c>
       <c r="Q19" t="n">
         <v>219.8381709871101</v>
       </c>
       <c r="R19" t="n">
-        <v>5.615951549488937</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,22 +36117,22 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>50.85195676437968</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J20" t="n">
-        <v>112.8595291536269</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K20" t="n">
         <v>169.1471783864346</v>
       </c>
       <c r="L20" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M20" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139918</v>
       </c>
       <c r="N20" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O20" t="n">
         <v>224.0452553667433</v>
@@ -36141,10 +36141,10 @@
         <v>191.2174419853368</v>
       </c>
       <c r="Q20" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R20" t="n">
-        <v>83.52891675219394</v>
+        <v>83.52891675219371</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>24.49580543289438</v>
+        <v>50.82274801921519</v>
       </c>
       <c r="J21" t="n">
         <v>395.0550542837863</v>
@@ -36205,7 +36205,7 @@
         <v>114.8868877226589</v>
       </c>
       <c r="L21" t="n">
-        <v>154.4795984656606</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M21" t="n">
         <v>180.2704050774914</v>
@@ -36214,13 +36214,13 @@
         <v>185.041626288561</v>
       </c>
       <c r="O21" t="n">
-        <v>169.2769372379898</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P21" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q21" t="n">
-        <v>133.9502340058268</v>
+        <v>107.6232914195059</v>
       </c>
       <c r="R21" t="n">
         <v>162.5299238926254</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>129.6248678447853</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K22" t="n">
-        <v>346.8331089915197</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L22" t="n">
-        <v>88.67926619453442</v>
+        <v>162.11615811347</v>
       </c>
       <c r="M22" t="n">
-        <v>93.49985245153209</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="N22" t="n">
-        <v>91.27663494268052</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="O22" t="n">
-        <v>262.2926534414114</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="P22" t="n">
-        <v>418.1856318563248</v>
+        <v>72.14069692136991</v>
       </c>
       <c r="Q22" t="n">
-        <v>219.8381709871103</v>
+        <v>49.9464792049564</v>
       </c>
       <c r="R22" t="n">
-        <v>5.615951549488944</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>50.85195676437966</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J23" t="n">
         <v>112.8595291536268</v>
@@ -36363,10 +36363,10 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L23" t="n">
-        <v>209.8420318050157</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M23" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139918</v>
       </c>
       <c r="N23" t="n">
         <v>237.2677999464441</v>
@@ -36378,7 +36378,7 @@
         <v>191.2174419853368</v>
       </c>
       <c r="Q23" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R23" t="n">
         <v>83.52891675219371</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>50.82274801921518</v>
+        <v>50.82274801921519</v>
       </c>
       <c r="J24" t="n">
-        <v>67.2183623987233</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K24" t="n">
-        <v>114.8868877226589</v>
+        <v>131.6915904391124</v>
       </c>
       <c r="L24" t="n">
-        <v>154.4795984656606</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M24" t="n">
         <v>180.2704050774914</v>
@@ -36451,16 +36451,16 @@
         <v>185.041626288561</v>
       </c>
       <c r="O24" t="n">
-        <v>169.27693723799</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P24" t="n">
-        <v>153.1340173001366</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q24" t="n">
-        <v>418.1856318563248</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R24" t="n">
-        <v>162.5299238926254</v>
+        <v>162.5299238926257</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>42.17064040570463</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K25" t="n">
-        <v>346.8331089915196</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L25" t="n">
-        <v>354.1174011539907</v>
+        <v>266.66317371491</v>
       </c>
       <c r="M25" t="n">
         <v>93.49985245153209</v>
       </c>
       <c r="N25" t="n">
-        <v>91.27663494268052</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O25" t="n">
         <v>84.30874592103589</v>
@@ -36539,7 +36539,7 @@
         <v>219.8381709871101</v>
       </c>
       <c r="R25" t="n">
-        <v>5.615951549488937</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,19 +36591,19 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>50.85195676437966</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J26" t="n">
         <v>112.8595291536268</v>
       </c>
       <c r="K26" t="n">
-        <v>169.1471783864346</v>
+        <v>169.1471783864345</v>
       </c>
       <c r="L26" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050161</v>
       </c>
       <c r="M26" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N26" t="n">
         <v>237.2677999464441</v>
@@ -36615,10 +36615,10 @@
         <v>191.2174419853368</v>
       </c>
       <c r="Q26" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R26" t="n">
-        <v>83.52891675219371</v>
+        <v>83.52891675219416</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>50.82274801921518</v>
+        <v>50.82274801921519</v>
       </c>
       <c r="J27" t="n">
         <v>395.0550542837863</v>
       </c>
       <c r="K27" t="n">
-        <v>131.6915904391129</v>
+        <v>131.6915904391124</v>
       </c>
       <c r="L27" t="n">
-        <v>154.4795984656606</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M27" t="n">
         <v>180.2704050774914</v>
@@ -36688,7 +36688,7 @@
         <v>185.041626288561</v>
       </c>
       <c r="O27" t="n">
-        <v>169.2769372379898</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P27" t="n">
         <v>135.8596658518925</v>
@@ -36697,7 +36697,7 @@
         <v>90.818588703052</v>
       </c>
       <c r="R27" t="n">
-        <v>162.5299238926254</v>
+        <v>162.5299238926257</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,31 +36752,31 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>42.17064040570463</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K28" t="n">
-        <v>346.8331089915196</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L28" t="n">
-        <v>418.1856318563247</v>
+        <v>88.67926619453442</v>
       </c>
       <c r="M28" t="n">
         <v>93.49985245153209</v>
       </c>
       <c r="N28" t="n">
-        <v>91.27663494268052</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O28" t="n">
-        <v>84.30874592103578</v>
+        <v>262.2926534414115</v>
       </c>
       <c r="P28" t="n">
-        <v>354.1174011539908</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="Q28" t="n">
         <v>219.8381709871101</v>
       </c>
       <c r="R28" t="n">
-        <v>5.615951549488937</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>50.85195676437968</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J29" t="n">
         <v>112.8595291536268</v>
@@ -36840,19 +36840,19 @@
         <v>209.8420318050158</v>
       </c>
       <c r="M29" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N29" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O29" t="n">
-        <v>224.0452553667433</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P29" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q29" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R29" t="n">
         <v>83.52891675219394</v>
@@ -36910,7 +36910,7 @@
         <v>50.82274801921519</v>
       </c>
       <c r="J30" t="n">
-        <v>395.0550542837863</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K30" t="n">
         <v>114.8868877226589</v>
@@ -36919,22 +36919,22 @@
         <v>154.4795984656607</v>
       </c>
       <c r="M30" t="n">
-        <v>180.2704050774914</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N30" t="n">
         <v>185.041626288561</v>
       </c>
       <c r="O30" t="n">
-        <v>169.2769372379898</v>
+        <v>169.27693723799</v>
       </c>
       <c r="P30" t="n">
-        <v>135.8596658518925</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="Q30" t="n">
-        <v>107.6232914195059</v>
+        <v>153.1340173001361</v>
       </c>
       <c r="R30" t="n">
-        <v>162.5299238926254</v>
+        <v>162.5299238926257</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36995,13 +36995,13 @@
         <v>346.8331089915197</v>
       </c>
       <c r="L31" t="n">
-        <v>88.67926619453442</v>
+        <v>266.66317371491</v>
       </c>
       <c r="M31" t="n">
-        <v>271.4837599719078</v>
+        <v>93.49985245153209</v>
       </c>
       <c r="N31" t="n">
-        <v>91.27663494268052</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O31" t="n">
         <v>84.30874592103589</v>
@@ -37013,7 +37013,7 @@
         <v>219.8381709871101</v>
       </c>
       <c r="R31" t="n">
-        <v>5.615951549488944</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>143.5963354852202</v>
       </c>
       <c r="R32" t="n">
-        <v>83.52891675219371</v>
+        <v>83.52891675219394</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>395.0550542837863</v>
       </c>
       <c r="K33" t="n">
-        <v>131.6915904391124</v>
+        <v>131.6915904391128</v>
       </c>
       <c r="L33" t="n">
         <v>154.4795984656607</v>
@@ -37226,25 +37226,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>42.17064040570464</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K34" t="n">
         <v>346.8331089915197</v>
       </c>
       <c r="L34" t="n">
-        <v>418.1856318563247</v>
+        <v>88.67926619453442</v>
       </c>
       <c r="M34" t="n">
-        <v>93.49985245153209</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="N34" t="n">
-        <v>91.27663494268052</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O34" t="n">
-        <v>84.30874592103578</v>
+        <v>84.30874592103601</v>
       </c>
       <c r="P34" t="n">
-        <v>354.1174011539904</v>
+        <v>271.4837599719071</v>
       </c>
       <c r="Q34" t="n">
         <v>219.8381709871101</v>
@@ -37311,16 +37311,16 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L35" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M35" t="n">
         <v>233.4896926139916</v>
       </c>
       <c r="N35" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O35" t="n">
-        <v>224.0452553667435</v>
+        <v>224.0452553667433</v>
       </c>
       <c r="P35" t="n">
         <v>191.2174419853368</v>
@@ -37329,7 +37329,7 @@
         <v>143.5963354852202</v>
       </c>
       <c r="R35" t="n">
-        <v>83.52891675219371</v>
+        <v>83.52891675219394</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>50.82274801921518</v>
+        <v>50.82274801921519</v>
       </c>
       <c r="J36" t="n">
         <v>395.0550542837863</v>
       </c>
       <c r="K36" t="n">
-        <v>131.6915904391129</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L36" t="n">
         <v>154.4795984656607</v>
@@ -37405,7 +37405,7 @@
         <v>135.8596658518925</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.818588703052</v>
+        <v>107.6232914195059</v>
       </c>
       <c r="R36" t="n">
         <v>162.5299238926254</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>42.17064040570464</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K37" t="n">
-        <v>118.7796841360503</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L37" t="n">
-        <v>418.1856318563247</v>
+        <v>354.1174011539908</v>
       </c>
       <c r="M37" t="n">
         <v>93.49985245153209</v>
@@ -37478,13 +37478,13 @@
         <v>91.27663494268052</v>
       </c>
       <c r="O37" t="n">
-        <v>418.1856318563247</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P37" t="n">
-        <v>418.1856318563246</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="Q37" t="n">
-        <v>49.9464792049564</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R37" t="n">
         <v>5.615951549488944</v>
@@ -37557,7 +37557,7 @@
         <v>237.2677999464441</v>
       </c>
       <c r="O38" t="n">
-        <v>224.0452553667435</v>
+        <v>224.0452553667433</v>
       </c>
       <c r="P38" t="n">
         <v>191.2174419853368</v>
@@ -37566,7 +37566,7 @@
         <v>143.5963354852202</v>
       </c>
       <c r="R38" t="n">
-        <v>83.52891675219371</v>
+        <v>83.52891675219394</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>50.82274801921518</v>
+        <v>50.82274801921519</v>
       </c>
       <c r="J39" t="n">
-        <v>395.0550542837863</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K39" t="n">
-        <v>131.6915904391129</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L39" t="n">
         <v>154.4795984656607</v>
@@ -37636,13 +37636,13 @@
         <v>185.041626288561</v>
       </c>
       <c r="O39" t="n">
-        <v>169.2769372379898</v>
+        <v>169.27693723799</v>
       </c>
       <c r="P39" t="n">
-        <v>135.8596658518925</v>
+        <v>153.1340173001367</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.818588703052</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="R39" t="n">
         <v>162.5299238926254</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>42.17064040570464</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K40" t="n">
-        <v>346.8331089915197</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L40" t="n">
-        <v>418.1856318563247</v>
+        <v>162.11615811347</v>
       </c>
       <c r="M40" t="n">
-        <v>93.49985245153209</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="N40" t="n">
-        <v>91.27663494268052</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="O40" t="n">
-        <v>84.30874592103578</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="P40" t="n">
-        <v>354.1174011539904</v>
+        <v>72.14069692136991</v>
       </c>
       <c r="Q40" t="n">
-        <v>219.8381709871101</v>
+        <v>49.9464792049564</v>
       </c>
       <c r="R40" t="n">
         <v>5.615951549488944</v>
@@ -37788,10 +37788,10 @@
         <v>209.8420318050158</v>
       </c>
       <c r="M41" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N41" t="n">
-        <v>237.2677999464439</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O41" t="n">
         <v>224.0452553667433</v>
@@ -37800,7 +37800,7 @@
         <v>191.2174419853368</v>
       </c>
       <c r="Q41" t="n">
-        <v>143.5963354852204</v>
+        <v>143.5963354852202</v>
       </c>
       <c r="R41" t="n">
         <v>83.52891675219394</v>
@@ -37861,7 +37861,7 @@
         <v>395.0550542837863</v>
       </c>
       <c r="K42" t="n">
-        <v>114.8868877226589</v>
+        <v>131.6915904391128</v>
       </c>
       <c r="L42" t="n">
         <v>154.4795984656607</v>
@@ -37879,7 +37879,7 @@
         <v>135.8596658518925</v>
       </c>
       <c r="Q42" t="n">
-        <v>107.6232914195059</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R42" t="n">
         <v>162.5299238926254</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>42.17064040570464</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K43" t="n">
-        <v>69.29931649542308</v>
+        <v>200.1312371071024</v>
       </c>
       <c r="L43" t="n">
-        <v>162.1161581134699</v>
+        <v>88.67926619453436</v>
       </c>
       <c r="M43" t="n">
         <v>418.1856318563247</v>
       </c>
       <c r="N43" t="n">
-        <v>418.1856318563247</v>
+        <v>91.27663494268052</v>
       </c>
       <c r="O43" t="n">
-        <v>418.1856318563246</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P43" t="n">
-        <v>72.14069692136991</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="Q43" t="n">
-        <v>49.9464792049564</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R43" t="n">
         <v>5.615951549488944</v>
@@ -38013,13 +38013,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>50.85195676437968</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J44" t="n">
         <v>112.8595291536269</v>
       </c>
       <c r="K44" t="n">
-        <v>169.1471783864347</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L44" t="n">
         <v>209.8420318050159</v>
@@ -38031,16 +38031,16 @@
         <v>237.2677999464443</v>
       </c>
       <c r="O44" t="n">
-        <v>224.0452553667433</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P44" t="n">
-        <v>191.2174419853366</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q44" t="n">
         <v>143.5963354852204</v>
       </c>
       <c r="R44" t="n">
-        <v>83.52891675219394</v>
+        <v>83.52891675219371</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>395.0550542837863</v>
       </c>
       <c r="K45" t="n">
-        <v>114.8868877226589</v>
+        <v>131.6915904391128</v>
       </c>
       <c r="L45" t="n">
         <v>154.4795984656607</v>
@@ -38110,13 +38110,13 @@
         <v>185.041626288561</v>
       </c>
       <c r="O45" t="n">
-        <v>169.2769372379898</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P45" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q45" t="n">
-        <v>107.6232914195059</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R45" t="n">
         <v>162.5299238926254</v>
@@ -38180,25 +38180,25 @@
         <v>346.8331089915197</v>
       </c>
       <c r="L46" t="n">
-        <v>266.6631737149102</v>
+        <v>88.67926619453442</v>
       </c>
       <c r="M46" t="n">
-        <v>93.49985245153209</v>
+        <v>283.6518089715737</v>
       </c>
       <c r="N46" t="n">
-        <v>91.27663494268052</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O46" t="n">
-        <v>84.30874592103589</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="P46" t="n">
-        <v>418.1856318563248</v>
+        <v>72.14069692136991</v>
       </c>
       <c r="Q46" t="n">
         <v>219.8381709871101</v>
       </c>
       <c r="R46" t="n">
-        <v>5.615951549488944</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
